--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A912" workbookViewId="0">
-      <selection activeCell="I942" sqref="I942"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="C629" sqref="C629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -14554,7 +14554,7 @@
         <v>62</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D628" s="1" t="s">
         <v>8</v>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="G628" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>JA31/29654</v>
+        <v>Ja31/29654</v>
       </c>
     </row>
     <row r="629" spans="1:7">

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="C629" sqref="C629"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="C528" sqref="C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -11215,7 +11215,7 @@
         <v>97</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>8</v>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="G469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Fe1 /14192</v>
+        <v>Fe1/14192</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -12433,7 +12433,7 @@
         <v>57</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>8</v>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="G527" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>Fe1 /14287</v>
+        <v>Fe1/14287</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -15751,7 +15751,7 @@
         <v>21</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>8</v>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="G685" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>Fe1 /14160</v>
+        <v>Fe1/14160</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -17347,7 +17347,7 @@
         <v>101</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D761" s="1" t="s">
         <v>8</v>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="G761" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Fe1 /14273</v>
+        <v>Fe1/14273</v>
       </c>
     </row>
     <row r="762" spans="1:7">

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="334">
   <si>
     <t>elution plate number</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe10 </t>
   </si>
   <si>
     <t>MC8</t>
@@ -1457,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
-      <selection activeCell="E916" sqref="E916"/>
+    <sheetView tabSelected="1" topLeftCell="A846" workbookViewId="0">
+      <selection activeCell="J866" sqref="J866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1855,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2632,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3850,7 +3847,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4837,7 +4834,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6055,7 +6052,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6265,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6853,7 +6850,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7294,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7840,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8302,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8344,7 +8341,7 @@
         <v>8</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8869,7 +8866,7 @@
         <v>8</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9625,7 +9622,7 @@
         <v>8</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G389" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9982,7 +9979,7 @@
         <v>8</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G406" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10087,7 +10084,7 @@
         <v>8</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G411" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11179,7 +11176,7 @@
         <v>8</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G463" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11599,7 +11596,7 @@
         <v>8</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G483" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11620,7 +11617,7 @@
         <v>8</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G484" s="1" t="str">
         <f t="shared" si="7"/>
@@ -12397,7 +12394,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G521" s="1" t="str">
         <f t="shared" si="8"/>
@@ -13063,7 +13060,7 @@
         <v>84</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>8</v>
@@ -13073,7 +13070,7 @@
       </c>
       <c r="G553" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>F10/29781</v>
+        <v>Fe10/29781</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13678,7 +13675,7 @@
         <v>8</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G582" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13762,7 +13759,7 @@
         <v>8</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G586" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13972,7 +13969,7 @@
         <v>8</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G596" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14203,7 +14200,7 @@
         <v>8</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G607" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16114,7 +16111,7 @@
         <v>8</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G698" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16318,7 +16315,7 @@
         <v>45</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D708" s="1" t="s">
         <v>8</v>
@@ -16328,7 +16325,7 @@
       </c>
       <c r="G708" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Fe10 /14187</v>
+        <v>Fe10/14187</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -16465,7 +16462,7 @@
         <v>52</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D715" s="1" t="s">
         <v>8</v>
@@ -16475,7 +16472,7 @@
       </c>
       <c r="G715" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Fe10 /29752</v>
+        <v>Fe10/29752</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -16870,7 +16867,7 @@
         <v>8</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G734" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16912,7 +16909,7 @@
         <v>8</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G736" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17122,7 +17119,7 @@
         <v>8</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G746" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17395,7 +17392,7 @@
         <v>8</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G759" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17614,19 +17611,19 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C770" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E770" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D770" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E770" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="G770" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17635,19 +17632,19 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C771" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E771" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D771" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E771" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G771" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17656,19 +17653,19 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C772" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E772" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D772" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E772" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="G772" s="1" t="str">
         <f t="shared" ref="G772:G835" si="12">(C772 &amp; D772 &amp; E772)</f>
@@ -17677,19 +17674,19 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C773" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E773" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D773" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E773" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G773" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17698,19 +17695,19 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C774" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E774" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D774" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E774" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G774" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17719,19 +17716,19 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C775" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E775" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D775" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E775" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G775" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17740,19 +17737,19 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C776" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E776" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D776" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E776" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G776" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17761,7 +17758,7 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>17</v>
@@ -17773,7 +17770,7 @@
         <v>8</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G777" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17782,19 +17779,19 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C778" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E778" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D778" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E778" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G778" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17803,19 +17800,19 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D779" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G779" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17824,19 +17821,19 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D780" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G780" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17845,19 +17842,19 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D781" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G781" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17866,19 +17863,19 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D782" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G782" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17887,19 +17884,19 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D783" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G783" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17908,7 +17905,7 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>26</v>
@@ -17920,7 +17917,7 @@
         <v>8</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G784" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17929,19 +17926,19 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D785" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G785" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17950,19 +17947,19 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D786" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G786" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17971,19 +17968,19 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D787" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G787" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17992,19 +17989,19 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C788" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E788" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D788" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E788" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="G788" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18013,19 +18010,19 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D789" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G789" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18034,19 +18031,19 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D790" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G790" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18055,19 +18052,19 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D791" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G791" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18076,19 +18073,19 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D792" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G792" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18097,19 +18094,19 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D793" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G793" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18118,19 +18115,19 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D794" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G794" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18139,19 +18136,19 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G795" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18160,19 +18157,19 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G796" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18181,19 +18178,19 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G797" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18202,19 +18199,19 @@
     </row>
     <row r="798" spans="1:7">
       <c r="A798" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G798" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18223,19 +18220,19 @@
     </row>
     <row r="799" spans="1:7">
       <c r="A799" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G799" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18244,19 +18241,19 @@
     </row>
     <row r="800" spans="1:7">
       <c r="A800" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G800" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18265,19 +18262,19 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G801" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18286,19 +18283,19 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D802" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G802" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18307,19 +18304,19 @@
     </row>
     <row r="803" spans="1:7">
       <c r="A803" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D803" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G803" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18328,19 +18325,19 @@
     </row>
     <row r="804" spans="1:7">
       <c r="A804" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D804" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G804" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18349,19 +18346,19 @@
     </row>
     <row r="805" spans="1:7">
       <c r="A805" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D805" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G805" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18370,19 +18367,19 @@
     </row>
     <row r="806" spans="1:7">
       <c r="A806" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G806" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18391,19 +18388,19 @@
     </row>
     <row r="807" spans="1:7">
       <c r="A807" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D807" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G807" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18412,19 +18409,19 @@
     </row>
     <row r="808" spans="1:7">
       <c r="A808" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G808" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18433,19 +18430,19 @@
     </row>
     <row r="809" spans="1:7">
       <c r="A809" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G809" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18454,19 +18451,19 @@
     </row>
     <row r="810" spans="1:7">
       <c r="A810" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G810" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18475,19 +18472,19 @@
     </row>
     <row r="811" spans="1:7">
       <c r="A811" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G811" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18496,19 +18493,19 @@
     </row>
     <row r="812" spans="1:7">
       <c r="A812" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G812" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18517,19 +18514,19 @@
     </row>
     <row r="813" spans="1:7">
       <c r="A813" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G813" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18538,19 +18535,19 @@
     </row>
     <row r="814" spans="1:7">
       <c r="A814" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G814" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18559,19 +18556,19 @@
     </row>
     <row r="815" spans="1:7">
       <c r="A815" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G815" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18580,19 +18577,19 @@
     </row>
     <row r="816" spans="1:7">
       <c r="A816" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G816" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18601,19 +18598,19 @@
     </row>
     <row r="817" spans="1:7">
       <c r="A817" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G817" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18622,19 +18619,19 @@
     </row>
     <row r="818" spans="1:7">
       <c r="A818" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G818" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18643,19 +18640,19 @@
     </row>
     <row r="819" spans="1:7">
       <c r="A819" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G819" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18664,19 +18661,19 @@
     </row>
     <row r="820" spans="1:7">
       <c r="A820" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G820" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18685,19 +18682,19 @@
     </row>
     <row r="821" spans="1:7">
       <c r="A821" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G821" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18706,19 +18703,19 @@
     </row>
     <row r="822" spans="1:7">
       <c r="A822" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G822" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18727,19 +18724,19 @@
     </row>
     <row r="823" spans="1:7">
       <c r="A823" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D823" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G823" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18748,19 +18745,19 @@
     </row>
     <row r="824" spans="1:7">
       <c r="A824" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D824" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G824" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18769,19 +18766,19 @@
     </row>
     <row r="825" spans="1:7">
       <c r="A825" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G825" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18790,7 +18787,7 @@
     </row>
     <row r="826" spans="1:7">
       <c r="A826" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B826" s="1" t="s">
         <v>77</v>
@@ -18802,7 +18799,7 @@
         <v>8</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G826" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18811,19 +18808,19 @@
     </row>
     <row r="827" spans="1:7">
       <c r="A827" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G827" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18832,19 +18829,19 @@
     </row>
     <row r="828" spans="1:7">
       <c r="A828" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G828" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18853,19 +18850,19 @@
     </row>
     <row r="829" spans="1:7">
       <c r="A829" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G829" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18874,19 +18871,19 @@
     </row>
     <row r="830" spans="1:7">
       <c r="A830" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G830" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18895,19 +18892,19 @@
     </row>
     <row r="831" spans="1:7">
       <c r="A831" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G831" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18916,19 +18913,19 @@
     </row>
     <row r="832" spans="1:7">
       <c r="A832" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G832" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18937,19 +18934,19 @@
     </row>
     <row r="833" spans="1:7">
       <c r="A833" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G833" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18958,19 +18955,19 @@
     </row>
     <row r="834" spans="1:7">
       <c r="A834" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G834" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18979,19 +18976,19 @@
     </row>
     <row r="835" spans="1:7">
       <c r="A835" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G835" s="1" t="str">
         <f t="shared" si="12"/>
@@ -19000,19 +18997,19 @@
     </row>
     <row r="836" spans="1:7">
       <c r="A836" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G836" s="1" t="str">
         <f t="shared" ref="G836:G899" si="13">(C836 &amp; D836 &amp; E836)</f>
@@ -19021,7 +19018,7 @@
     </row>
     <row r="837" spans="1:7" ht="15">
       <c r="A837" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>92</v>
@@ -19033,7 +19030,7 @@
         <v>8</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G837" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19042,19 +19039,19 @@
     </row>
     <row r="838" spans="1:7">
       <c r="A838" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G838" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19063,19 +19060,19 @@
     </row>
     <row r="839" spans="1:7">
       <c r="A839" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G839" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19084,19 +19081,19 @@
     </row>
     <row r="840" spans="1:7">
       <c r="A840" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G840" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19105,19 +19102,19 @@
     </row>
     <row r="841" spans="1:7">
       <c r="A841" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G841" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19126,19 +19123,19 @@
     </row>
     <row r="842" spans="1:7">
       <c r="A842" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G842" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19147,19 +19144,19 @@
     </row>
     <row r="843" spans="1:7">
       <c r="A843" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G843" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19168,7 +19165,7 @@
     </row>
     <row r="844" spans="1:7" ht="15">
       <c r="A844" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B844" s="1" t="s">
         <v>101</v>
@@ -19180,7 +19177,7 @@
         <v>8</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G844" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19189,19 +19186,19 @@
     </row>
     <row r="845" spans="1:7">
       <c r="A845" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G845" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19210,19 +19207,19 @@
     </row>
     <row r="846" spans="1:7">
       <c r="A846" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G846" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19231,19 +19228,19 @@
     </row>
     <row r="847" spans="1:7">
       <c r="A847" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G847" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19252,19 +19249,19 @@
     </row>
     <row r="848" spans="1:7">
       <c r="A848" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G848" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19273,19 +19270,19 @@
     </row>
     <row r="849" spans="1:7">
       <c r="A849" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G849" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19294,19 +19291,19 @@
     </row>
     <row r="850" spans="1:7">
       <c r="A850" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G850" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19315,19 +19312,19 @@
     </row>
     <row r="851" spans="1:7">
       <c r="A851" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G851" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19336,19 +19333,19 @@
     </row>
     <row r="852" spans="1:7">
       <c r="A852" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G852" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19357,19 +19354,19 @@
     </row>
     <row r="853" spans="1:7">
       <c r="A853" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G853" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19378,19 +19375,19 @@
     </row>
     <row r="854" spans="1:7">
       <c r="A854" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G854" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19399,19 +19396,19 @@
     </row>
     <row r="855" spans="1:7">
       <c r="A855" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G855" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19420,19 +19417,19 @@
     </row>
     <row r="856" spans="1:7">
       <c r="A856" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D856" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G856" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19441,19 +19438,19 @@
     </row>
     <row r="857" spans="1:7">
       <c r="A857" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D857" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G857" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19462,19 +19459,19 @@
     </row>
     <row r="858" spans="1:7">
       <c r="A858" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G858" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19483,19 +19480,19 @@
     </row>
     <row r="859" spans="1:7">
       <c r="A859" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G859" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19504,19 +19501,19 @@
     </row>
     <row r="860" spans="1:7">
       <c r="A860" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G860" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19525,19 +19522,19 @@
     </row>
     <row r="861" spans="1:7">
       <c r="A861" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G861" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19546,19 +19543,19 @@
     </row>
     <row r="862" spans="1:7">
       <c r="A862" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G862" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19567,19 +19564,19 @@
     </row>
     <row r="863" spans="1:7">
       <c r="A863" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G863" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19588,19 +19585,19 @@
     </row>
     <row r="864" spans="1:7">
       <c r="A864" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G864" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19609,19 +19606,19 @@
     </row>
     <row r="865" spans="1:7">
       <c r="A865" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B865" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G865" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19630,19 +19627,19 @@
     </row>
     <row r="866" spans="1:7">
       <c r="A866" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G866" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19651,19 +19648,19 @@
     </row>
     <row r="867" spans="1:7">
       <c r="A867" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G867" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19672,19 +19669,19 @@
     </row>
     <row r="868" spans="1:7">
       <c r="A868" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G868" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19693,19 +19690,19 @@
     </row>
     <row r="869" spans="1:7">
       <c r="A869" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D869" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G869" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19714,19 +19711,19 @@
     </row>
     <row r="870" spans="1:7">
       <c r="A870" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D870" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G870" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19735,19 +19732,19 @@
     </row>
     <row r="871" spans="1:7">
       <c r="A871" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D871" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G871" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19756,19 +19753,19 @@
     </row>
     <row r="872" spans="1:7">
       <c r="A872" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G872" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19777,19 +19774,19 @@
     </row>
     <row r="873" spans="1:7">
       <c r="A873" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D873" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G873" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19798,19 +19795,19 @@
     </row>
     <row r="874" spans="1:7">
       <c r="A874" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D874" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G874" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19819,19 +19816,19 @@
     </row>
     <row r="875" spans="1:7">
       <c r="A875" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D875" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G875" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19840,19 +19837,19 @@
     </row>
     <row r="876" spans="1:7">
       <c r="A876" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D876" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G876" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19861,19 +19858,19 @@
     </row>
     <row r="877" spans="1:7">
       <c r="A877" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D877" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G877" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19882,19 +19879,19 @@
     </row>
     <row r="878" spans="1:7">
       <c r="A878" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G878" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19903,19 +19900,19 @@
     </row>
     <row r="879" spans="1:7">
       <c r="A879" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G879" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19924,19 +19921,19 @@
     </row>
     <row r="880" spans="1:7">
       <c r="A880" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G880" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19945,19 +19942,19 @@
     </row>
     <row r="881" spans="1:7">
       <c r="A881" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G881" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19966,19 +19963,19 @@
     </row>
     <row r="882" spans="1:7">
       <c r="A882" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G882" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19987,19 +19984,19 @@
     </row>
     <row r="883" spans="1:7">
       <c r="A883" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G883" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20008,19 +20005,19 @@
     </row>
     <row r="884" spans="1:7">
       <c r="A884" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G884" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20029,19 +20026,19 @@
     </row>
     <row r="885" spans="1:7">
       <c r="A885" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G885" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20050,19 +20047,19 @@
     </row>
     <row r="886" spans="1:7">
       <c r="A886" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G886" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20071,19 +20068,19 @@
     </row>
     <row r="887" spans="1:7">
       <c r="A887" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G887" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20092,19 +20089,19 @@
     </row>
     <row r="888" spans="1:7">
       <c r="A888" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B888" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G888" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20113,7 +20110,7 @@
     </row>
     <row r="889" spans="1:7">
       <c r="A889" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>56</v>
@@ -20125,7 +20122,7 @@
         <v>8</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G889" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20134,19 +20131,19 @@
     </row>
     <row r="890" spans="1:7">
       <c r="A890" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G890" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20155,19 +20152,19 @@
     </row>
     <row r="891" spans="1:7">
       <c r="A891" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G891" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20176,19 +20173,19 @@
     </row>
     <row r="892" spans="1:7">
       <c r="A892" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G892" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20197,19 +20194,19 @@
     </row>
     <row r="893" spans="1:7">
       <c r="A893" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B893" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G893" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20218,19 +20215,19 @@
     </row>
     <row r="894" spans="1:7">
       <c r="A894" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G894" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20239,19 +20236,19 @@
     </row>
     <row r="895" spans="1:7">
       <c r="A895" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B895" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G895" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20260,19 +20257,19 @@
     </row>
     <row r="896" spans="1:7">
       <c r="A896" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G896" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20281,19 +20278,19 @@
     </row>
     <row r="897" spans="1:7">
       <c r="A897" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G897" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20302,19 +20299,19 @@
     </row>
     <row r="898" spans="1:7">
       <c r="A898" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G898" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20323,19 +20320,19 @@
     </row>
     <row r="899" spans="1:7">
       <c r="A899" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G899" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20344,19 +20341,19 @@
     </row>
     <row r="900" spans="1:7">
       <c r="A900" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B900" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G900" s="1" t="str">
         <f t="shared" ref="G900:G929" si="14">(C900 &amp; D900 &amp; E900)</f>
@@ -20365,19 +20362,19 @@
     </row>
     <row r="901" spans="1:7">
       <c r="A901" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B901" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G901" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20386,19 +20383,19 @@
     </row>
     <row r="902" spans="1:7">
       <c r="A902" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G902" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20407,19 +20404,19 @@
     </row>
     <row r="903" spans="1:7">
       <c r="A903" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G903" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20428,19 +20425,19 @@
     </row>
     <row r="904" spans="1:7">
       <c r="A904" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B904" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G904" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20449,19 +20446,19 @@
     </row>
     <row r="905" spans="1:7">
       <c r="A905" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D905" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E905" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G905" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20470,7 +20467,7 @@
     </row>
     <row r="906" spans="1:7" ht="15">
       <c r="A906" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>77</v>
@@ -20482,7 +20479,7 @@
         <v>8</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G906" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20491,19 +20488,19 @@
     </row>
     <row r="907" spans="1:7">
       <c r="A907" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E907" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G907" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20512,19 +20509,19 @@
     </row>
     <row r="908" spans="1:7">
       <c r="A908" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D908" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G908" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20533,19 +20530,19 @@
     </row>
     <row r="909" spans="1:7">
       <c r="A909" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D909" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G909" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20554,19 +20551,19 @@
     </row>
     <row r="910" spans="1:7">
       <c r="A910" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G910" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20575,7 +20572,7 @@
     </row>
     <row r="911" spans="1:7" ht="15">
       <c r="A911" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>86</v>
@@ -20587,7 +20584,7 @@
         <v>8</v>
       </c>
       <c r="E911" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G911" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20596,19 +20593,19 @@
     </row>
     <row r="912" spans="1:7">
       <c r="A912" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D912" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E912" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G912" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20617,19 +20614,19 @@
     </row>
     <row r="913" spans="1:7">
       <c r="A913" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B913" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G913" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20638,19 +20635,19 @@
     </row>
     <row r="914" spans="1:7">
       <c r="A914" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D914" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E914" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G914" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20659,7 +20656,7 @@
     </row>
     <row r="915" spans="1:7">
       <c r="A915" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>90</v>
@@ -20671,7 +20668,7 @@
         <v>8</v>
       </c>
       <c r="E915" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G915" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20680,19 +20677,19 @@
     </row>
     <row r="916" spans="1:7">
       <c r="A916" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E916" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G916" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20701,19 +20698,19 @@
     </row>
     <row r="917" spans="1:7">
       <c r="A917" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D917" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E917" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G917" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20722,19 +20719,19 @@
     </row>
     <row r="918" spans="1:7">
       <c r="A918" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D918" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E918" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G918" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20743,19 +20740,19 @@
     </row>
     <row r="919" spans="1:7">
       <c r="A919" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B919" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E919" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G919" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20764,19 +20761,19 @@
     </row>
     <row r="920" spans="1:7">
       <c r="A920" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D920" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E920" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G920" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20785,19 +20782,19 @@
     </row>
     <row r="921" spans="1:7">
       <c r="A921" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B921" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E921" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G921" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20806,19 +20803,19 @@
     </row>
     <row r="922" spans="1:7">
       <c r="A922" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E922" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G922" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20827,19 +20824,19 @@
     </row>
     <row r="923" spans="1:7">
       <c r="A923" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G923" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20848,19 +20845,19 @@
     </row>
     <row r="924" spans="1:7">
       <c r="A924" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D924" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G924" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20869,19 +20866,19 @@
     </row>
     <row r="925" spans="1:7">
       <c r="A925" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B925" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D925" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E925" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G925" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20890,19 +20887,19 @@
     </row>
     <row r="926" spans="1:7">
       <c r="A926" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G926" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20911,19 +20908,19 @@
     </row>
     <row r="927" spans="1:7">
       <c r="A927" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G927" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20932,19 +20929,19 @@
     </row>
     <row r="928" spans="1:7">
       <c r="A928" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G928" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20953,19 +20950,19 @@
     </row>
     <row r="929" spans="1:7">
       <c r="A929" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G929" s="1" t="str">
         <f t="shared" si="14"/>

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="333">
   <si>
     <t>elution plate number</t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>MC5</t>
-  </si>
-  <si>
-    <t>JA31</t>
   </si>
   <si>
     <t xml:space="preserve">Fe1 </t>
@@ -1454,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A846" workbookViewId="0">
-      <selection activeCell="J866" sqref="J866"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1852,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2629,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3847,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4834,7 +4831,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6052,7 +6049,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6262,7 +6259,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6850,7 +6847,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7291,7 +7288,7 @@
         <v>8</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7837,7 +7834,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8299,7 +8296,7 @@
         <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8341,7 +8338,7 @@
         <v>8</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8866,7 +8863,7 @@
         <v>8</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9622,7 +9619,7 @@
         <v>8</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G389" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9979,7 +9976,7 @@
         <v>8</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G406" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10084,7 +10081,7 @@
         <v>8</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G411" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10393,7 +10390,7 @@
         <v>51</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>8</v>
@@ -10403,7 +10400,7 @@
       </c>
       <c r="G426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>JA31/14263</v>
+        <v>Ja31/14263</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -11176,7 +11173,7 @@
         <v>8</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G463" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11296,7 +11293,7 @@
         <v>96</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>8</v>
@@ -11563,7 +11560,7 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>6</v>
@@ -11584,7 +11581,7 @@
     </row>
     <row r="483" spans="1:7" ht="15">
       <c r="A483" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>9</v>
@@ -11596,7 +11593,7 @@
         <v>8</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G483" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11605,7 +11602,7 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>11</v>
@@ -11617,7 +11614,7 @@
         <v>8</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G484" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11626,7 +11623,7 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>12</v>
@@ -11647,7 +11644,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>14</v>
@@ -11668,7 +11665,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>15</v>
@@ -11689,7 +11686,7 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>16</v>
@@ -11710,7 +11707,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>17</v>
@@ -11731,7 +11728,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>18</v>
@@ -11752,7 +11749,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>19</v>
@@ -11773,7 +11770,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>20</v>
@@ -11794,7 +11791,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>21</v>
@@ -11815,7 +11812,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="A494" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>22</v>
@@ -11836,7 +11833,7 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>23</v>
@@ -11857,7 +11854,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>24</v>
@@ -11878,7 +11875,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>25</v>
@@ -11899,7 +11896,7 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>26</v>
@@ -11920,7 +11917,7 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>27</v>
@@ -11941,7 +11938,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>29</v>
@@ -11962,7 +11959,7 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>30</v>
@@ -11983,7 +11980,7 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>31</v>
@@ -12004,7 +12001,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>32</v>
@@ -12025,7 +12022,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>33</v>
@@ -12046,7 +12043,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>34</v>
@@ -12067,7 +12064,7 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>35</v>
@@ -12088,7 +12085,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>36</v>
@@ -12109,7 +12106,7 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>37</v>
@@ -12130,7 +12127,7 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>38</v>
@@ -12151,7 +12148,7 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>39</v>
@@ -12172,7 +12169,7 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>40</v>
@@ -12193,7 +12190,7 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>41</v>
@@ -12214,7 +12211,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>42</v>
@@ -12235,7 +12232,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>43</v>
@@ -12256,7 +12253,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>44</v>
@@ -12277,7 +12274,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>45</v>
@@ -12298,7 +12295,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>46</v>
@@ -12319,7 +12316,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>47</v>
@@ -12340,7 +12337,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>48</v>
@@ -12361,7 +12358,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>49</v>
@@ -12382,7 +12379,7 @@
     </row>
     <row r="521" spans="1:7" ht="15">
       <c r="A521" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>50</v>
@@ -12394,7 +12391,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G521" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12403,7 +12400,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>51</v>
@@ -12424,7 +12421,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>52</v>
@@ -12445,7 +12442,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="A524" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>53</v>
@@ -12466,7 +12463,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>54</v>
@@ -12487,7 +12484,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>55</v>
@@ -12508,13 +12505,13 @@
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>8</v>
@@ -12529,7 +12526,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>57</v>
@@ -12550,7 +12547,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>58</v>
@@ -12571,7 +12568,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="A530" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>59</v>
@@ -12592,7 +12589,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>60</v>
@@ -12604,7 +12601,7 @@
         <v>8</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G531" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12613,7 +12610,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="A532" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>61</v>
@@ -12634,7 +12631,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="A533" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>62</v>
@@ -12655,7 +12652,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>63</v>
@@ -12676,7 +12673,7 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>64</v>
@@ -12697,7 +12694,7 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>65</v>
@@ -12718,7 +12715,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>66</v>
@@ -12739,7 +12736,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>67</v>
@@ -12760,7 +12757,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>68</v>
@@ -12781,7 +12778,7 @@
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>69</v>
@@ -12802,7 +12799,7 @@
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>70</v>
@@ -12823,7 +12820,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>71</v>
@@ -12844,7 +12841,7 @@
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>72</v>
@@ -12865,7 +12862,7 @@
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>73</v>
@@ -12886,7 +12883,7 @@
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>74</v>
@@ -12907,7 +12904,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="A546" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>75</v>
@@ -12928,7 +12925,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="A547" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>76</v>
@@ -12949,7 +12946,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>77</v>
@@ -12970,7 +12967,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>78</v>
@@ -12991,7 +12988,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>81</v>
@@ -13012,19 +13009,19 @@
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G551" s="1" t="str">
         <f t="shared" si="8"/>
@@ -13033,7 +13030,7 @@
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>83</v>
@@ -13054,7 +13051,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="A553" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>84</v>
@@ -13075,7 +13072,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="A554" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>85</v>
@@ -13096,7 +13093,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>86</v>
@@ -13117,7 +13114,7 @@
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>87</v>
@@ -13138,7 +13135,7 @@
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>88</v>
@@ -13159,7 +13156,7 @@
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>89</v>
@@ -13180,7 +13177,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>90</v>
@@ -13201,7 +13198,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="A560" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>91</v>
@@ -13222,7 +13219,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="A561" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>92</v>
@@ -13243,7 +13240,7 @@
     </row>
     <row r="562" spans="1:7">
       <c r="A562" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>93</v>
@@ -13264,7 +13261,7 @@
     </row>
     <row r="563" spans="1:7">
       <c r="A563" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>94</v>
@@ -13285,7 +13282,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="A564" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>95</v>
@@ -13306,7 +13303,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="A565" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>96</v>
@@ -13327,7 +13324,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="A566" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>97</v>
@@ -13348,7 +13345,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="A567" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>98</v>
@@ -13369,7 +13366,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="A568" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>99</v>
@@ -13390,7 +13387,7 @@
     </row>
     <row r="569" spans="1:7">
       <c r="A569" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>100</v>
@@ -13411,7 +13408,7 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>101</v>
@@ -13432,7 +13429,7 @@
     </row>
     <row r="571" spans="1:7">
       <c r="A571" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>102</v>
@@ -13453,7 +13450,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="A572" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>103</v>
@@ -13474,7 +13471,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="A573" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>104</v>
@@ -13495,7 +13492,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="A574" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>105</v>
@@ -13516,7 +13513,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="A575" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>106</v>
@@ -13537,7 +13534,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="A576" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>107</v>
@@ -13558,7 +13555,7 @@
     </row>
     <row r="577" spans="1:7">
       <c r="A577" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>108</v>
@@ -13579,13 +13576,13 @@
     </row>
     <row r="578" spans="1:7">
       <c r="A578" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>8</v>
@@ -13600,7 +13597,7 @@
     </row>
     <row r="579" spans="1:7">
       <c r="A579" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>9</v>
@@ -13621,7 +13618,7 @@
     </row>
     <row r="580" spans="1:7">
       <c r="A580" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>11</v>
@@ -13642,7 +13639,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="A581" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>12</v>
@@ -13663,7 +13660,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="A582" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>14</v>
@@ -13675,7 +13672,7 @@
         <v>8</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G582" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13684,7 +13681,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="A583" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>15</v>
@@ -13705,7 +13702,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="A584" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>16</v>
@@ -13726,7 +13723,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="A585" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>17</v>
@@ -13747,7 +13744,7 @@
     </row>
     <row r="586" spans="1:7" ht="15">
       <c r="A586" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>18</v>
@@ -13759,7 +13756,7 @@
         <v>8</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G586" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13768,7 +13765,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>19</v>
@@ -13789,7 +13786,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>20</v>
@@ -13810,7 +13807,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>21</v>
@@ -13831,7 +13828,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="A590" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>22</v>
@@ -13852,13 +13849,13 @@
     </row>
     <row r="591" spans="1:7">
       <c r="A591" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>8</v>
@@ -13873,7 +13870,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="A592" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>24</v>
@@ -13894,7 +13891,7 @@
     </row>
     <row r="593" spans="1:7">
       <c r="A593" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>25</v>
@@ -13915,7 +13912,7 @@
     </row>
     <row r="594" spans="1:7">
       <c r="A594" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>26</v>
@@ -13936,7 +13933,7 @@
     </row>
     <row r="595" spans="1:7">
       <c r="A595" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>27</v>
@@ -13957,7 +13954,7 @@
     </row>
     <row r="596" spans="1:7" ht="15">
       <c r="A596" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>29</v>
@@ -13969,7 +13966,7 @@
         <v>8</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G596" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13978,7 +13975,7 @@
     </row>
     <row r="597" spans="1:7">
       <c r="A597" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>30</v>
@@ -13999,7 +13996,7 @@
     </row>
     <row r="598" spans="1:7">
       <c r="A598" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>31</v>
@@ -14020,7 +14017,7 @@
     </row>
     <row r="599" spans="1:7">
       <c r="A599" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>32</v>
@@ -14041,7 +14038,7 @@
     </row>
     <row r="600" spans="1:7">
       <c r="A600" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>33</v>
@@ -14062,7 +14059,7 @@
     </row>
     <row r="601" spans="1:7">
       <c r="A601" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>34</v>
@@ -14083,7 +14080,7 @@
     </row>
     <row r="602" spans="1:7">
       <c r="A602" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>35</v>
@@ -14104,7 +14101,7 @@
     </row>
     <row r="603" spans="1:7">
       <c r="A603" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>36</v>
@@ -14125,7 +14122,7 @@
     </row>
     <row r="604" spans="1:7">
       <c r="A604" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>37</v>
@@ -14146,7 +14143,7 @@
     </row>
     <row r="605" spans="1:7">
       <c r="A605" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>38</v>
@@ -14167,7 +14164,7 @@
     </row>
     <row r="606" spans="1:7">
       <c r="A606" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>39</v>
@@ -14188,7 +14185,7 @@
     </row>
     <row r="607" spans="1:7">
       <c r="A607" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>40</v>
@@ -14200,7 +14197,7 @@
         <v>8</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G607" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14209,7 +14206,7 @@
     </row>
     <row r="608" spans="1:7">
       <c r="A608" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>41</v>
@@ -14230,13 +14227,13 @@
     </row>
     <row r="609" spans="1:7">
       <c r="A609" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>8</v>
@@ -14251,7 +14248,7 @@
     </row>
     <row r="610" spans="1:7">
       <c r="A610" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>43</v>
@@ -14272,7 +14269,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="A611" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>44</v>
@@ -14293,7 +14290,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="A612" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>45</v>
@@ -14314,7 +14311,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="A613" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>46</v>
@@ -14335,7 +14332,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="A614" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>47</v>
@@ -14356,7 +14353,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>48</v>
@@ -14377,7 +14374,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="A616" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>49</v>
@@ -14398,7 +14395,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="A617" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>50</v>
@@ -14419,7 +14416,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="A618" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>51</v>
@@ -14431,7 +14428,7 @@
         <v>8</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G618" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14440,7 +14437,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="A619" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>52</v>
@@ -14461,7 +14458,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="A620" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>53</v>
@@ -14482,7 +14479,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="A621" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>54</v>
@@ -14503,7 +14500,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="A622" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>55</v>
@@ -14524,13 +14521,13 @@
     </row>
     <row r="623" spans="1:7">
       <c r="A623" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D623" s="1" t="s">
         <v>8</v>
@@ -14545,7 +14542,7 @@
     </row>
     <row r="624" spans="1:7">
       <c r="A624" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>57</v>
@@ -14566,7 +14563,7 @@
     </row>
     <row r="625" spans="1:7">
       <c r="A625" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>58</v>
@@ -14587,7 +14584,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="A626" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>59</v>
@@ -14608,7 +14605,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="A627" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>60</v>
@@ -14629,7 +14626,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="A628" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>61</v>
@@ -14650,7 +14647,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="A629" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>62</v>
@@ -14671,7 +14668,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="A630" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>63</v>
@@ -14692,7 +14689,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="A631" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>64</v>
@@ -14713,7 +14710,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>65</v>
@@ -14734,7 +14731,7 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>66</v>
@@ -14755,13 +14752,13 @@
     </row>
     <row r="634" spans="1:7">
       <c r="A634" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>8</v>
@@ -14776,7 +14773,7 @@
     </row>
     <row r="635" spans="1:7">
       <c r="A635" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>68</v>
@@ -14797,7 +14794,7 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>69</v>
@@ -14818,7 +14815,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>70</v>
@@ -14839,7 +14836,7 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>71</v>
@@ -14860,7 +14857,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="A639" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>72</v>
@@ -14881,7 +14878,7 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>73</v>
@@ -14902,7 +14899,7 @@
     </row>
     <row r="641" spans="1:7">
       <c r="A641" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>74</v>
@@ -14923,7 +14920,7 @@
     </row>
     <row r="642" spans="1:7">
       <c r="A642" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>75</v>
@@ -14944,7 +14941,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="A643" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>76</v>
@@ -14965,7 +14962,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="A644" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>77</v>
@@ -14986,7 +14983,7 @@
     </row>
     <row r="645" spans="1:7">
       <c r="A645" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>78</v>
@@ -15007,7 +15004,7 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>81</v>
@@ -15028,7 +15025,7 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>82</v>
@@ -15049,7 +15046,7 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>83</v>
@@ -15070,7 +15067,7 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>84</v>
@@ -15091,7 +15088,7 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>85</v>
@@ -15112,7 +15109,7 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>86</v>
@@ -15133,7 +15130,7 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>87</v>
@@ -15154,7 +15151,7 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>88</v>
@@ -15175,7 +15172,7 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>89</v>
@@ -15196,7 +15193,7 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>90</v>
@@ -15217,7 +15214,7 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>91</v>
@@ -15238,7 +15235,7 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>92</v>
@@ -15259,7 +15256,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>93</v>
@@ -15280,7 +15277,7 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>94</v>
@@ -15301,7 +15298,7 @@
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>95</v>
@@ -15322,7 +15319,7 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>96</v>
@@ -15343,7 +15340,7 @@
     </row>
     <row r="662" spans="1:7">
       <c r="A662" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>97</v>
@@ -15364,7 +15361,7 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>98</v>
@@ -15385,7 +15382,7 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>99</v>
@@ -15406,7 +15403,7 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>100</v>
@@ -15427,7 +15424,7 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>101</v>
@@ -15448,7 +15445,7 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>102</v>
@@ -15469,7 +15466,7 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>103</v>
@@ -15490,7 +15487,7 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>104</v>
@@ -15511,7 +15508,7 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>105</v>
@@ -15532,7 +15529,7 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>106</v>
@@ -15553,7 +15550,7 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>107</v>
@@ -15574,7 +15571,7 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>108</v>
@@ -15595,7 +15592,7 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>6</v>
@@ -15616,7 +15613,7 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>9</v>
@@ -15637,7 +15634,7 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>11</v>
@@ -15658,7 +15655,7 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>12</v>
@@ -15679,7 +15676,7 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>14</v>
@@ -15700,7 +15697,7 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>15</v>
@@ -15721,7 +15718,7 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>16</v>
@@ -15742,7 +15739,7 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>17</v>
@@ -15763,7 +15760,7 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>18</v>
@@ -15784,7 +15781,7 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>19</v>
@@ -15805,7 +15802,7 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>20</v>
@@ -15826,13 +15823,13 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>8</v>
@@ -15847,7 +15844,7 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>22</v>
@@ -15868,7 +15865,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>23</v>
@@ -15889,7 +15886,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="A688" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>24</v>
@@ -15910,7 +15907,7 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>25</v>
@@ -15931,7 +15928,7 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>26</v>
@@ -15952,7 +15949,7 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>27</v>
@@ -15973,7 +15970,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>29</v>
@@ -15994,7 +15991,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="A693" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>30</v>
@@ -16015,7 +16012,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>31</v>
@@ -16036,7 +16033,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>32</v>
@@ -16057,7 +16054,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="A696" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>33</v>
@@ -16078,7 +16075,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="A697" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>34</v>
@@ -16099,7 +16096,7 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>35</v>
@@ -16111,7 +16108,7 @@
         <v>8</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G698" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16120,7 +16117,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>36</v>
@@ -16141,7 +16138,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>37</v>
@@ -16162,7 +16159,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>38</v>
@@ -16183,7 +16180,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="A702" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>39</v>
@@ -16204,7 +16201,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="A703" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>40</v>
@@ -16225,7 +16222,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="A704" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>41</v>
@@ -16246,7 +16243,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="A705" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>42</v>
@@ -16267,7 +16264,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="A706" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>43</v>
@@ -16288,7 +16285,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="A707" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>44</v>
@@ -16309,7 +16306,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="A708" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>45</v>
@@ -16330,7 +16327,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="A709" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>46</v>
@@ -16351,7 +16348,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="A710" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>47</v>
@@ -16372,7 +16369,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="A711" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>48</v>
@@ -16393,7 +16390,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="A712" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>49</v>
@@ -16414,7 +16411,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="A713" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>50</v>
@@ -16435,7 +16432,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="A714" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>51</v>
@@ -16456,7 +16453,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="A715" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>52</v>
@@ -16477,7 +16474,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="A716" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>53</v>
@@ -16498,7 +16495,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="A717" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>54</v>
@@ -16519,7 +16516,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="A718" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>55</v>
@@ -16540,7 +16537,7 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>56</v>
@@ -16561,7 +16558,7 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>57</v>
@@ -16582,7 +16579,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>58</v>
@@ -16603,7 +16600,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>59</v>
@@ -16624,7 +16621,7 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>60</v>
@@ -16645,7 +16642,7 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>61</v>
@@ -16666,7 +16663,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>62</v>
@@ -16687,7 +16684,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>63</v>
@@ -16708,7 +16705,7 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>64</v>
@@ -16729,7 +16726,7 @@
     </row>
     <row r="728" spans="1:7">
       <c r="A728" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>65</v>
@@ -16750,7 +16747,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>66</v>
@@ -16771,7 +16768,7 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>67</v>
@@ -16792,7 +16789,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>68</v>
@@ -16813,7 +16810,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>69</v>
@@ -16834,13 +16831,13 @@
     </row>
     <row r="733" spans="1:7">
       <c r="A733" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>8</v>
@@ -16855,7 +16852,7 @@
     </row>
     <row r="734" spans="1:7" ht="15">
       <c r="A734" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>71</v>
@@ -16867,7 +16864,7 @@
         <v>8</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G734" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16876,7 +16873,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>72</v>
@@ -16897,7 +16894,7 @@
     </row>
     <row r="736" spans="1:7" ht="15">
       <c r="A736" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>73</v>
@@ -16909,7 +16906,7 @@
         <v>8</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G736" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16918,7 +16915,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="A737" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>74</v>
@@ -16939,7 +16936,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="A738" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>75</v>
@@ -16960,7 +16957,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>76</v>
@@ -16981,7 +16978,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>77</v>
@@ -17002,7 +16999,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>78</v>
@@ -17023,13 +17020,13 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>8</v>
@@ -17044,7 +17041,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>82</v>
@@ -17065,7 +17062,7 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>83</v>
@@ -17086,7 +17083,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="A745" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>84</v>
@@ -17107,7 +17104,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="A746" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>85</v>
@@ -17119,7 +17116,7 @@
         <v>8</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G746" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17128,7 +17125,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="A747" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>86</v>
@@ -17149,7 +17146,7 @@
     </row>
     <row r="748" spans="1:7">
       <c r="A748" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>87</v>
@@ -17170,13 +17167,13 @@
     </row>
     <row r="749" spans="1:7">
       <c r="A749" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D749" s="1" t="s">
         <v>8</v>
@@ -17191,7 +17188,7 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>89</v>
@@ -17212,7 +17209,7 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>90</v>
@@ -17233,7 +17230,7 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>91</v>
@@ -17254,7 +17251,7 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>92</v>
@@ -17275,7 +17272,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="A754" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>93</v>
@@ -17296,7 +17293,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="A755" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>94</v>
@@ -17317,7 +17314,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>95</v>
@@ -17338,7 +17335,7 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>96</v>
@@ -17359,7 +17356,7 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>97</v>
@@ -17380,7 +17377,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="A759" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>98</v>
@@ -17392,7 +17389,7 @@
         <v>8</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G759" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17401,7 +17398,7 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>99</v>
@@ -17422,13 +17419,13 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D761" s="1" t="s">
         <v>8</v>
@@ -17443,7 +17440,7 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>101</v>
@@ -17464,7 +17461,7 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>102</v>
@@ -17485,7 +17482,7 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>103</v>
@@ -17496,17 +17493,17 @@
       <c r="D764" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E764" s="1">
-        <v>14266</v>
+      <c r="E764" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="G764" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Fe7/14266</v>
+        <v>Fe7/14260</v>
       </c>
     </row>
     <row r="765" spans="1:7">
       <c r="A765" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>104</v>
@@ -17527,7 +17524,7 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>105</v>
@@ -17548,7 +17545,7 @@
     </row>
     <row r="767" spans="1:7">
       <c r="A767" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>106</v>
@@ -17569,7 +17566,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>107</v>
@@ -17590,7 +17587,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="A769" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>108</v>
@@ -17611,19 +17608,19 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C770" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E770" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D770" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E770" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G770" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17632,19 +17629,19 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C771" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E771" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D771" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E771" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G771" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17653,19 +17650,19 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C772" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E772" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D772" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E772" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G772" s="1" t="str">
         <f t="shared" ref="G772:G835" si="12">(C772 &amp; D772 &amp; E772)</f>
@@ -17674,19 +17671,19 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C773" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E773" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D773" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E773" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="G773" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17695,19 +17692,19 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C774" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E774" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D774" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E774" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="G774" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17716,19 +17713,19 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C775" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E775" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D775" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E775" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G775" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17737,19 +17734,19 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C776" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E776" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D776" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E776" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G776" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17758,7 +17755,7 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>17</v>
@@ -17770,7 +17767,7 @@
         <v>8</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G777" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17779,19 +17776,19 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C778" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E778" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D778" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E778" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G778" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17800,19 +17797,19 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D779" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G779" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17821,19 +17818,19 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D780" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G780" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17842,19 +17839,19 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D781" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G781" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17863,19 +17860,19 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D782" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G782" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17884,19 +17881,19 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D783" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G783" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17905,7 +17902,7 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>26</v>
@@ -17917,7 +17914,7 @@
         <v>8</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G784" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17926,19 +17923,19 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D785" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G785" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17947,19 +17944,19 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D786" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G786" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17968,19 +17965,19 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D787" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G787" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17989,19 +17986,19 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C788" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E788" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D788" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E788" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="G788" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18010,19 +18007,19 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D789" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G789" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18031,19 +18028,19 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D790" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G790" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18052,19 +18049,19 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D791" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G791" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18073,19 +18070,19 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D792" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G792" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18094,19 +18091,19 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D793" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G793" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18115,19 +18112,19 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D794" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G794" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18136,19 +18133,19 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G795" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18157,19 +18154,19 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G796" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18178,19 +18175,19 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G797" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18199,19 +18196,19 @@
     </row>
     <row r="798" spans="1:7">
       <c r="A798" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G798" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18220,19 +18217,19 @@
     </row>
     <row r="799" spans="1:7">
       <c r="A799" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G799" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18241,19 +18238,19 @@
     </row>
     <row r="800" spans="1:7">
       <c r="A800" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G800" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18262,19 +18259,19 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G801" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18283,19 +18280,19 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D802" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G802" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18304,19 +18301,19 @@
     </row>
     <row r="803" spans="1:7">
       <c r="A803" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D803" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G803" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18325,19 +18322,19 @@
     </row>
     <row r="804" spans="1:7">
       <c r="A804" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D804" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G804" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18346,19 +18343,19 @@
     </row>
     <row r="805" spans="1:7">
       <c r="A805" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D805" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G805" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18367,19 +18364,19 @@
     </row>
     <row r="806" spans="1:7">
       <c r="A806" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G806" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18388,19 +18385,19 @@
     </row>
     <row r="807" spans="1:7">
       <c r="A807" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D807" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G807" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18409,19 +18406,19 @@
     </row>
     <row r="808" spans="1:7">
       <c r="A808" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G808" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18430,19 +18427,19 @@
     </row>
     <row r="809" spans="1:7">
       <c r="A809" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G809" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18451,19 +18448,19 @@
     </row>
     <row r="810" spans="1:7">
       <c r="A810" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G810" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18472,19 +18469,19 @@
     </row>
     <row r="811" spans="1:7">
       <c r="A811" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G811" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18493,19 +18490,19 @@
     </row>
     <row r="812" spans="1:7">
       <c r="A812" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G812" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18514,19 +18511,19 @@
     </row>
     <row r="813" spans="1:7">
       <c r="A813" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G813" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18535,19 +18532,19 @@
     </row>
     <row r="814" spans="1:7">
       <c r="A814" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G814" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18556,19 +18553,19 @@
     </row>
     <row r="815" spans="1:7">
       <c r="A815" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G815" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18577,19 +18574,19 @@
     </row>
     <row r="816" spans="1:7">
       <c r="A816" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G816" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18598,19 +18595,19 @@
     </row>
     <row r="817" spans="1:7">
       <c r="A817" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G817" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18619,19 +18616,19 @@
     </row>
     <row r="818" spans="1:7">
       <c r="A818" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G818" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18640,19 +18637,19 @@
     </row>
     <row r="819" spans="1:7">
       <c r="A819" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G819" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18661,19 +18658,19 @@
     </row>
     <row r="820" spans="1:7">
       <c r="A820" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G820" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18682,19 +18679,19 @@
     </row>
     <row r="821" spans="1:7">
       <c r="A821" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G821" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18703,19 +18700,19 @@
     </row>
     <row r="822" spans="1:7">
       <c r="A822" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G822" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18724,19 +18721,19 @@
     </row>
     <row r="823" spans="1:7">
       <c r="A823" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D823" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G823" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18745,19 +18742,19 @@
     </row>
     <row r="824" spans="1:7">
       <c r="A824" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D824" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G824" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18766,19 +18763,19 @@
     </row>
     <row r="825" spans="1:7">
       <c r="A825" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G825" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18787,7 +18784,7 @@
     </row>
     <row r="826" spans="1:7">
       <c r="A826" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B826" s="1" t="s">
         <v>77</v>
@@ -18799,7 +18796,7 @@
         <v>8</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G826" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18808,19 +18805,19 @@
     </row>
     <row r="827" spans="1:7">
       <c r="A827" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G827" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18829,19 +18826,19 @@
     </row>
     <row r="828" spans="1:7">
       <c r="A828" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G828" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18850,19 +18847,19 @@
     </row>
     <row r="829" spans="1:7">
       <c r="A829" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G829" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18871,19 +18868,19 @@
     </row>
     <row r="830" spans="1:7">
       <c r="A830" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G830" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18892,19 +18889,19 @@
     </row>
     <row r="831" spans="1:7">
       <c r="A831" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G831" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18913,19 +18910,19 @@
     </row>
     <row r="832" spans="1:7">
       <c r="A832" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G832" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18934,19 +18931,19 @@
     </row>
     <row r="833" spans="1:7">
       <c r="A833" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G833" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18955,19 +18952,19 @@
     </row>
     <row r="834" spans="1:7">
       <c r="A834" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G834" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18976,19 +18973,19 @@
     </row>
     <row r="835" spans="1:7">
       <c r="A835" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G835" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18997,19 +18994,19 @@
     </row>
     <row r="836" spans="1:7">
       <c r="A836" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G836" s="1" t="str">
         <f t="shared" ref="G836:G899" si="13">(C836 &amp; D836 &amp; E836)</f>
@@ -19018,7 +19015,7 @@
     </row>
     <row r="837" spans="1:7" ht="15">
       <c r="A837" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>92</v>
@@ -19030,7 +19027,7 @@
         <v>8</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G837" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19039,19 +19036,19 @@
     </row>
     <row r="838" spans="1:7">
       <c r="A838" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G838" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19060,19 +19057,19 @@
     </row>
     <row r="839" spans="1:7">
       <c r="A839" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G839" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19081,19 +19078,19 @@
     </row>
     <row r="840" spans="1:7">
       <c r="A840" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G840" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19102,19 +19099,19 @@
     </row>
     <row r="841" spans="1:7">
       <c r="A841" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G841" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19123,19 +19120,19 @@
     </row>
     <row r="842" spans="1:7">
       <c r="A842" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G842" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19144,19 +19141,19 @@
     </row>
     <row r="843" spans="1:7">
       <c r="A843" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G843" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19165,7 +19162,7 @@
     </row>
     <row r="844" spans="1:7" ht="15">
       <c r="A844" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B844" s="1" t="s">
         <v>101</v>
@@ -19177,7 +19174,7 @@
         <v>8</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G844" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19186,19 +19183,19 @@
     </row>
     <row r="845" spans="1:7">
       <c r="A845" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G845" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19207,19 +19204,19 @@
     </row>
     <row r="846" spans="1:7">
       <c r="A846" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G846" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19228,19 +19225,19 @@
     </row>
     <row r="847" spans="1:7">
       <c r="A847" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G847" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19249,19 +19246,19 @@
     </row>
     <row r="848" spans="1:7">
       <c r="A848" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G848" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19270,19 +19267,19 @@
     </row>
     <row r="849" spans="1:7">
       <c r="A849" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G849" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19291,19 +19288,19 @@
     </row>
     <row r="850" spans="1:7">
       <c r="A850" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G850" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19312,19 +19309,19 @@
     </row>
     <row r="851" spans="1:7">
       <c r="A851" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G851" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19333,19 +19330,19 @@
     </row>
     <row r="852" spans="1:7">
       <c r="A852" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G852" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19354,19 +19351,19 @@
     </row>
     <row r="853" spans="1:7">
       <c r="A853" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G853" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19375,19 +19372,19 @@
     </row>
     <row r="854" spans="1:7">
       <c r="A854" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G854" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19396,19 +19393,19 @@
     </row>
     <row r="855" spans="1:7">
       <c r="A855" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G855" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19417,19 +19414,19 @@
     </row>
     <row r="856" spans="1:7">
       <c r="A856" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D856" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G856" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19438,19 +19435,19 @@
     </row>
     <row r="857" spans="1:7">
       <c r="A857" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D857" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G857" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19459,19 +19456,19 @@
     </row>
     <row r="858" spans="1:7">
       <c r="A858" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G858" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19480,19 +19477,19 @@
     </row>
     <row r="859" spans="1:7">
       <c r="A859" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G859" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19501,19 +19498,19 @@
     </row>
     <row r="860" spans="1:7">
       <c r="A860" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G860" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19522,19 +19519,19 @@
     </row>
     <row r="861" spans="1:7">
       <c r="A861" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G861" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19543,19 +19540,19 @@
     </row>
     <row r="862" spans="1:7">
       <c r="A862" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G862" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19564,19 +19561,19 @@
     </row>
     <row r="863" spans="1:7">
       <c r="A863" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G863" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19585,19 +19582,19 @@
     </row>
     <row r="864" spans="1:7">
       <c r="A864" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G864" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19606,19 +19603,19 @@
     </row>
     <row r="865" spans="1:7">
       <c r="A865" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B865" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G865" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19627,19 +19624,19 @@
     </row>
     <row r="866" spans="1:7">
       <c r="A866" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G866" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19648,19 +19645,19 @@
     </row>
     <row r="867" spans="1:7">
       <c r="A867" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G867" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19669,19 +19666,19 @@
     </row>
     <row r="868" spans="1:7">
       <c r="A868" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G868" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19690,19 +19687,19 @@
     </row>
     <row r="869" spans="1:7">
       <c r="A869" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D869" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G869" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19711,19 +19708,19 @@
     </row>
     <row r="870" spans="1:7">
       <c r="A870" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D870" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G870" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19732,19 +19729,19 @@
     </row>
     <row r="871" spans="1:7">
       <c r="A871" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D871" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G871" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19753,19 +19750,19 @@
     </row>
     <row r="872" spans="1:7">
       <c r="A872" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G872" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19774,19 +19771,19 @@
     </row>
     <row r="873" spans="1:7">
       <c r="A873" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D873" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G873" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19795,19 +19792,19 @@
     </row>
     <row r="874" spans="1:7">
       <c r="A874" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D874" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G874" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19816,19 +19813,19 @@
     </row>
     <row r="875" spans="1:7">
       <c r="A875" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D875" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G875" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19837,19 +19834,19 @@
     </row>
     <row r="876" spans="1:7">
       <c r="A876" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D876" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G876" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19858,19 +19855,19 @@
     </row>
     <row r="877" spans="1:7">
       <c r="A877" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D877" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G877" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19879,19 +19876,19 @@
     </row>
     <row r="878" spans="1:7">
       <c r="A878" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G878" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19900,19 +19897,19 @@
     </row>
     <row r="879" spans="1:7">
       <c r="A879" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G879" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19921,19 +19918,19 @@
     </row>
     <row r="880" spans="1:7">
       <c r="A880" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G880" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19942,19 +19939,19 @@
     </row>
     <row r="881" spans="1:7">
       <c r="A881" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G881" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19963,19 +19960,19 @@
     </row>
     <row r="882" spans="1:7">
       <c r="A882" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G882" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19984,19 +19981,19 @@
     </row>
     <row r="883" spans="1:7">
       <c r="A883" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G883" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20005,19 +20002,19 @@
     </row>
     <row r="884" spans="1:7">
       <c r="A884" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G884" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20026,19 +20023,19 @@
     </row>
     <row r="885" spans="1:7">
       <c r="A885" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G885" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20047,19 +20044,19 @@
     </row>
     <row r="886" spans="1:7">
       <c r="A886" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G886" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20068,19 +20065,19 @@
     </row>
     <row r="887" spans="1:7">
       <c r="A887" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G887" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20089,19 +20086,19 @@
     </row>
     <row r="888" spans="1:7">
       <c r="A888" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B888" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G888" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20110,7 +20107,7 @@
     </row>
     <row r="889" spans="1:7">
       <c r="A889" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>56</v>
@@ -20122,7 +20119,7 @@
         <v>8</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G889" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20131,19 +20128,19 @@
     </row>
     <row r="890" spans="1:7">
       <c r="A890" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G890" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20152,19 +20149,19 @@
     </row>
     <row r="891" spans="1:7">
       <c r="A891" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G891" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20173,19 +20170,19 @@
     </row>
     <row r="892" spans="1:7">
       <c r="A892" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G892" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20194,19 +20191,19 @@
     </row>
     <row r="893" spans="1:7">
       <c r="A893" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B893" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G893" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20215,19 +20212,19 @@
     </row>
     <row r="894" spans="1:7">
       <c r="A894" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G894" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20236,19 +20233,19 @@
     </row>
     <row r="895" spans="1:7">
       <c r="A895" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B895" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G895" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20257,19 +20254,19 @@
     </row>
     <row r="896" spans="1:7">
       <c r="A896" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G896" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20278,19 +20275,19 @@
     </row>
     <row r="897" spans="1:7">
       <c r="A897" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G897" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20299,19 +20296,19 @@
     </row>
     <row r="898" spans="1:7">
       <c r="A898" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G898" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20320,19 +20317,19 @@
     </row>
     <row r="899" spans="1:7">
       <c r="A899" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G899" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20341,19 +20338,19 @@
     </row>
     <row r="900" spans="1:7">
       <c r="A900" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B900" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G900" s="1" t="str">
         <f t="shared" ref="G900:G929" si="14">(C900 &amp; D900 &amp; E900)</f>
@@ -20362,19 +20359,19 @@
     </row>
     <row r="901" spans="1:7">
       <c r="A901" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B901" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G901" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20383,19 +20380,19 @@
     </row>
     <row r="902" spans="1:7">
       <c r="A902" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G902" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20404,19 +20401,19 @@
     </row>
     <row r="903" spans="1:7">
       <c r="A903" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G903" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20425,19 +20422,19 @@
     </row>
     <row r="904" spans="1:7">
       <c r="A904" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B904" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G904" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20446,19 +20443,19 @@
     </row>
     <row r="905" spans="1:7">
       <c r="A905" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D905" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E905" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G905" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20467,7 +20464,7 @@
     </row>
     <row r="906" spans="1:7" ht="15">
       <c r="A906" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>77</v>
@@ -20479,7 +20476,7 @@
         <v>8</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G906" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20488,19 +20485,19 @@
     </row>
     <row r="907" spans="1:7">
       <c r="A907" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E907" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G907" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20509,19 +20506,19 @@
     </row>
     <row r="908" spans="1:7">
       <c r="A908" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D908" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G908" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20530,19 +20527,19 @@
     </row>
     <row r="909" spans="1:7">
       <c r="A909" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D909" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G909" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20551,19 +20548,19 @@
     </row>
     <row r="910" spans="1:7">
       <c r="A910" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G910" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20572,7 +20569,7 @@
     </row>
     <row r="911" spans="1:7" ht="15">
       <c r="A911" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>86</v>
@@ -20584,7 +20581,7 @@
         <v>8</v>
       </c>
       <c r="E911" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G911" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20593,19 +20590,19 @@
     </row>
     <row r="912" spans="1:7">
       <c r="A912" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D912" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E912" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G912" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20614,19 +20611,19 @@
     </row>
     <row r="913" spans="1:7">
       <c r="A913" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B913" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G913" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20635,19 +20632,19 @@
     </row>
     <row r="914" spans="1:7">
       <c r="A914" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D914" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E914" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G914" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20656,7 +20653,7 @@
     </row>
     <row r="915" spans="1:7">
       <c r="A915" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>90</v>
@@ -20668,7 +20665,7 @@
         <v>8</v>
       </c>
       <c r="E915" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G915" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20677,19 +20674,19 @@
     </row>
     <row r="916" spans="1:7">
       <c r="A916" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E916" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G916" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20698,19 +20695,19 @@
     </row>
     <row r="917" spans="1:7">
       <c r="A917" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D917" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E917" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G917" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20719,19 +20716,19 @@
     </row>
     <row r="918" spans="1:7">
       <c r="A918" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D918" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E918" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G918" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20740,19 +20737,19 @@
     </row>
     <row r="919" spans="1:7">
       <c r="A919" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B919" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E919" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G919" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20761,19 +20758,19 @@
     </row>
     <row r="920" spans="1:7">
       <c r="A920" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D920" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E920" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G920" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20782,19 +20779,19 @@
     </row>
     <row r="921" spans="1:7">
       <c r="A921" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B921" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E921" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G921" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20803,19 +20800,19 @@
     </row>
     <row r="922" spans="1:7">
       <c r="A922" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E922" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G922" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20824,19 +20821,19 @@
     </row>
     <row r="923" spans="1:7">
       <c r="A923" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G923" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20845,19 +20842,19 @@
     </row>
     <row r="924" spans="1:7">
       <c r="A924" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D924" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G924" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20866,19 +20863,19 @@
     </row>
     <row r="925" spans="1:7">
       <c r="A925" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B925" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D925" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E925" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G925" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20887,19 +20884,19 @@
     </row>
     <row r="926" spans="1:7">
       <c r="A926" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G926" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20908,19 +20905,19 @@
     </row>
     <row r="927" spans="1:7">
       <c r="A927" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G927" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20929,19 +20926,19 @@
     </row>
     <row r="928" spans="1:7">
       <c r="A928" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G928" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20950,19 +20947,19 @@
     </row>
     <row r="929" spans="1:7">
       <c r="A929" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G929" s="1" t="str">
         <f t="shared" si="14"/>

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="332">
   <si>
     <t>elution plate number</t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>MC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe1 </t>
   </si>
   <si>
     <t>P6</t>
@@ -1451,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C427" sqref="C427"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="E764" sqref="E764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1849,7 +1846,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2626,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3844,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4831,7 +4828,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6049,7 +6046,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6259,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6847,7 +6844,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7288,7 +7285,7 @@
         <v>8</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7834,7 +7831,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8296,7 +8293,7 @@
         <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8338,7 +8335,7 @@
         <v>8</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8863,7 +8860,7 @@
         <v>8</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9619,7 +9616,7 @@
         <v>8</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G389" s="1" t="str">
         <f t="shared" si="6"/>
@@ -9976,7 +9973,7 @@
         <v>8</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G406" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10081,7 +10078,7 @@
         <v>8</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G411" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11173,7 +11170,7 @@
         <v>8</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G463" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11293,7 +11290,7 @@
         <v>96</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>8</v>
@@ -11560,7 +11557,7 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>6</v>
@@ -11581,7 +11578,7 @@
     </row>
     <row r="483" spans="1:7" ht="15">
       <c r="A483" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>9</v>
@@ -11593,7 +11590,7 @@
         <v>8</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G483" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11602,7 +11599,7 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>11</v>
@@ -11614,7 +11611,7 @@
         <v>8</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G484" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11623,7 +11620,7 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>12</v>
@@ -11644,7 +11641,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>14</v>
@@ -11665,7 +11662,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>15</v>
@@ -11686,7 +11683,7 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>16</v>
@@ -11707,7 +11704,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>17</v>
@@ -11728,7 +11725,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>18</v>
@@ -11749,7 +11746,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>19</v>
@@ -11770,7 +11767,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>20</v>
@@ -11791,7 +11788,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>21</v>
@@ -11812,7 +11809,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="A494" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>22</v>
@@ -11833,7 +11830,7 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>23</v>
@@ -11854,7 +11851,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>24</v>
@@ -11875,7 +11872,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>25</v>
@@ -11896,7 +11893,7 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>26</v>
@@ -11917,7 +11914,7 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>27</v>
@@ -11938,7 +11935,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>29</v>
@@ -11959,7 +11956,7 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>30</v>
@@ -11980,7 +11977,7 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>31</v>
@@ -12001,7 +11998,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>32</v>
@@ -12022,7 +12019,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>33</v>
@@ -12043,7 +12040,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>34</v>
@@ -12064,7 +12061,7 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>35</v>
@@ -12085,7 +12082,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>36</v>
@@ -12106,7 +12103,7 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>37</v>
@@ -12127,7 +12124,7 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>38</v>
@@ -12148,7 +12145,7 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>39</v>
@@ -12169,7 +12166,7 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>40</v>
@@ -12190,7 +12187,7 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>41</v>
@@ -12211,7 +12208,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>42</v>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>43</v>
@@ -12253,7 +12250,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>44</v>
@@ -12274,7 +12271,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>45</v>
@@ -12295,7 +12292,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>46</v>
@@ -12316,7 +12313,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>47</v>
@@ -12337,7 +12334,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>48</v>
@@ -12358,7 +12355,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>49</v>
@@ -12379,7 +12376,7 @@
     </row>
     <row r="521" spans="1:7" ht="15">
       <c r="A521" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>50</v>
@@ -12391,7 +12388,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G521" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12400,7 +12397,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>51</v>
@@ -12421,7 +12418,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>52</v>
@@ -12442,7 +12439,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="A524" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>53</v>
@@ -12463,7 +12460,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>54</v>
@@ -12484,7 +12481,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>55</v>
@@ -12505,13 +12502,13 @@
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>8</v>
@@ -12526,7 +12523,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>57</v>
@@ -12547,7 +12544,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>58</v>
@@ -12568,7 +12565,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="A530" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>59</v>
@@ -12589,7 +12586,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>60</v>
@@ -12601,7 +12598,7 @@
         <v>8</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G531" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12610,7 +12607,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="A532" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>61</v>
@@ -12631,7 +12628,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="A533" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>62</v>
@@ -12652,7 +12649,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>63</v>
@@ -12673,7 +12670,7 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>64</v>
@@ -12694,7 +12691,7 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>65</v>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>66</v>
@@ -12736,7 +12733,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>67</v>
@@ -12757,7 +12754,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>68</v>
@@ -12778,7 +12775,7 @@
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>69</v>
@@ -12799,7 +12796,7 @@
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>70</v>
@@ -12820,7 +12817,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>71</v>
@@ -12841,7 +12838,7 @@
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>72</v>
@@ -12862,7 +12859,7 @@
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>73</v>
@@ -12883,7 +12880,7 @@
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>74</v>
@@ -12904,7 +12901,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="A546" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>75</v>
@@ -12925,7 +12922,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="A547" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>76</v>
@@ -12946,7 +12943,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>77</v>
@@ -12967,7 +12964,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>78</v>
@@ -12988,7 +12985,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>81</v>
@@ -13009,19 +13006,19 @@
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G551" s="1" t="str">
         <f t="shared" si="8"/>
@@ -13030,7 +13027,7 @@
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>83</v>
@@ -13051,7 +13048,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="A553" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>84</v>
@@ -13072,7 +13069,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="A554" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>85</v>
@@ -13093,7 +13090,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>86</v>
@@ -13114,7 +13111,7 @@
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>87</v>
@@ -13135,7 +13132,7 @@
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>88</v>
@@ -13156,7 +13153,7 @@
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>89</v>
@@ -13177,7 +13174,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>90</v>
@@ -13198,7 +13195,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="A560" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>91</v>
@@ -13219,7 +13216,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="A561" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>92</v>
@@ -13240,7 +13237,7 @@
     </row>
     <row r="562" spans="1:7">
       <c r="A562" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>93</v>
@@ -13261,7 +13258,7 @@
     </row>
     <row r="563" spans="1:7">
       <c r="A563" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>94</v>
@@ -13282,7 +13279,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="A564" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>95</v>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="A565" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>96</v>
@@ -13324,7 +13321,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="A566" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>97</v>
@@ -13345,7 +13342,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="A567" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>98</v>
@@ -13366,7 +13363,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="A568" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>99</v>
@@ -13387,7 +13384,7 @@
     </row>
     <row r="569" spans="1:7">
       <c r="A569" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>100</v>
@@ -13408,7 +13405,7 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>101</v>
@@ -13429,7 +13426,7 @@
     </row>
     <row r="571" spans="1:7">
       <c r="A571" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>102</v>
@@ -13450,7 +13447,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="A572" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>103</v>
@@ -13471,7 +13468,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="A573" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>104</v>
@@ -13492,7 +13489,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="A574" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>105</v>
@@ -13513,7 +13510,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="A575" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>106</v>
@@ -13534,7 +13531,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="A576" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>107</v>
@@ -13555,7 +13552,7 @@
     </row>
     <row r="577" spans="1:7">
       <c r="A577" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>108</v>
@@ -13576,13 +13573,13 @@
     </row>
     <row r="578" spans="1:7">
       <c r="A578" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>8</v>
@@ -13597,7 +13594,7 @@
     </row>
     <row r="579" spans="1:7">
       <c r="A579" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>9</v>
@@ -13618,7 +13615,7 @@
     </row>
     <row r="580" spans="1:7">
       <c r="A580" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>11</v>
@@ -13639,7 +13636,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="A581" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>12</v>
@@ -13660,7 +13657,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="A582" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>14</v>
@@ -13672,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G582" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13681,7 +13678,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="A583" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>15</v>
@@ -13702,7 +13699,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="A584" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>16</v>
@@ -13723,7 +13720,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="A585" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>17</v>
@@ -13744,7 +13741,7 @@
     </row>
     <row r="586" spans="1:7" ht="15">
       <c r="A586" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>18</v>
@@ -13756,7 +13753,7 @@
         <v>8</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G586" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13765,7 +13762,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>19</v>
@@ -13786,7 +13783,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>20</v>
@@ -13807,7 +13804,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>21</v>
@@ -13828,7 +13825,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="A590" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>22</v>
@@ -13849,13 +13846,13 @@
     </row>
     <row r="591" spans="1:7">
       <c r="A591" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>8</v>
@@ -13870,7 +13867,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="A592" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>24</v>
@@ -13891,7 +13888,7 @@
     </row>
     <row r="593" spans="1:7">
       <c r="A593" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>25</v>
@@ -13912,7 +13909,7 @@
     </row>
     <row r="594" spans="1:7">
       <c r="A594" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>26</v>
@@ -13933,7 +13930,7 @@
     </row>
     <row r="595" spans="1:7">
       <c r="A595" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>27</v>
@@ -13954,7 +13951,7 @@
     </row>
     <row r="596" spans="1:7" ht="15">
       <c r="A596" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>29</v>
@@ -13966,7 +13963,7 @@
         <v>8</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G596" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13975,7 +13972,7 @@
     </row>
     <row r="597" spans="1:7">
       <c r="A597" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>30</v>
@@ -13996,7 +13993,7 @@
     </row>
     <row r="598" spans="1:7">
       <c r="A598" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>31</v>
@@ -14017,7 +14014,7 @@
     </row>
     <row r="599" spans="1:7">
       <c r="A599" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>32</v>
@@ -14038,7 +14035,7 @@
     </row>
     <row r="600" spans="1:7">
       <c r="A600" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>33</v>
@@ -14059,7 +14056,7 @@
     </row>
     <row r="601" spans="1:7">
       <c r="A601" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>34</v>
@@ -14080,7 +14077,7 @@
     </row>
     <row r="602" spans="1:7">
       <c r="A602" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>35</v>
@@ -14101,7 +14098,7 @@
     </row>
     <row r="603" spans="1:7">
       <c r="A603" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>36</v>
@@ -14122,7 +14119,7 @@
     </row>
     <row r="604" spans="1:7">
       <c r="A604" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>37</v>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="605" spans="1:7">
       <c r="A605" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>38</v>
@@ -14164,7 +14161,7 @@
     </row>
     <row r="606" spans="1:7">
       <c r="A606" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>39</v>
@@ -14185,7 +14182,7 @@
     </row>
     <row r="607" spans="1:7">
       <c r="A607" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>40</v>
@@ -14197,7 +14194,7 @@
         <v>8</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G607" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14206,7 +14203,7 @@
     </row>
     <row r="608" spans="1:7">
       <c r="A608" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>41</v>
@@ -14227,13 +14224,13 @@
     </row>
     <row r="609" spans="1:7">
       <c r="A609" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>8</v>
@@ -14248,7 +14245,7 @@
     </row>
     <row r="610" spans="1:7">
       <c r="A610" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>43</v>
@@ -14269,7 +14266,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="A611" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>44</v>
@@ -14290,7 +14287,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="A612" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>45</v>
@@ -14311,7 +14308,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="A613" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>46</v>
@@ -14332,7 +14329,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="A614" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>47</v>
@@ -14353,7 +14350,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>48</v>
@@ -14374,7 +14371,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="A616" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>49</v>
@@ -14395,7 +14392,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="A617" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>50</v>
@@ -14416,7 +14413,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="A618" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>51</v>
@@ -14428,7 +14425,7 @@
         <v>8</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G618" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14437,7 +14434,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="A619" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>52</v>
@@ -14458,7 +14455,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="A620" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>53</v>
@@ -14479,7 +14476,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="A621" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>54</v>
@@ -14500,7 +14497,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="A622" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>55</v>
@@ -14521,13 +14518,13 @@
     </row>
     <row r="623" spans="1:7">
       <c r="A623" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D623" s="1" t="s">
         <v>8</v>
@@ -14542,7 +14539,7 @@
     </row>
     <row r="624" spans="1:7">
       <c r="A624" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>57</v>
@@ -14563,7 +14560,7 @@
     </row>
     <row r="625" spans="1:7">
       <c r="A625" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>58</v>
@@ -14584,7 +14581,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="A626" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>59</v>
@@ -14605,7 +14602,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="A627" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>60</v>
@@ -14626,7 +14623,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="A628" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>61</v>
@@ -14647,7 +14644,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="A629" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>62</v>
@@ -14668,7 +14665,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="A630" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>63</v>
@@ -14689,7 +14686,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="A631" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>64</v>
@@ -14710,7 +14707,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>65</v>
@@ -14731,7 +14728,7 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>66</v>
@@ -14752,13 +14749,13 @@
     </row>
     <row r="634" spans="1:7">
       <c r="A634" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>8</v>
@@ -14773,7 +14770,7 @@
     </row>
     <row r="635" spans="1:7">
       <c r="A635" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>68</v>
@@ -14794,7 +14791,7 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>69</v>
@@ -14815,7 +14812,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>70</v>
@@ -14836,7 +14833,7 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>71</v>
@@ -14857,7 +14854,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="A639" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>72</v>
@@ -14878,7 +14875,7 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>73</v>
@@ -14899,7 +14896,7 @@
     </row>
     <row r="641" spans="1:7">
       <c r="A641" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>74</v>
@@ -14920,7 +14917,7 @@
     </row>
     <row r="642" spans="1:7">
       <c r="A642" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>75</v>
@@ -14941,7 +14938,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="A643" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>76</v>
@@ -14962,7 +14959,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="A644" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>77</v>
@@ -14983,7 +14980,7 @@
     </row>
     <row r="645" spans="1:7">
       <c r="A645" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>78</v>
@@ -15004,7 +15001,7 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>81</v>
@@ -15025,7 +15022,7 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>82</v>
@@ -15046,7 +15043,7 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>83</v>
@@ -15067,7 +15064,7 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>84</v>
@@ -15088,7 +15085,7 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>85</v>
@@ -15109,7 +15106,7 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>86</v>
@@ -15130,7 +15127,7 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>87</v>
@@ -15151,7 +15148,7 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>88</v>
@@ -15172,7 +15169,7 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>89</v>
@@ -15193,7 +15190,7 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>90</v>
@@ -15214,7 +15211,7 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>91</v>
@@ -15235,7 +15232,7 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>92</v>
@@ -15256,7 +15253,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>93</v>
@@ -15277,7 +15274,7 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>94</v>
@@ -15298,7 +15295,7 @@
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>95</v>
@@ -15319,7 +15316,7 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>96</v>
@@ -15340,7 +15337,7 @@
     </row>
     <row r="662" spans="1:7">
       <c r="A662" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>97</v>
@@ -15361,7 +15358,7 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>98</v>
@@ -15382,7 +15379,7 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>99</v>
@@ -15403,7 +15400,7 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>100</v>
@@ -15424,7 +15421,7 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>101</v>
@@ -15445,7 +15442,7 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>102</v>
@@ -15466,7 +15463,7 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>103</v>
@@ -15487,7 +15484,7 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>104</v>
@@ -15508,7 +15505,7 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>105</v>
@@ -15529,7 +15526,7 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>106</v>
@@ -15550,7 +15547,7 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>107</v>
@@ -15571,7 +15568,7 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>108</v>
@@ -15592,7 +15589,7 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>6</v>
@@ -15613,7 +15610,7 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>9</v>
@@ -15634,7 +15631,7 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>11</v>
@@ -15655,7 +15652,7 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>12</v>
@@ -15676,7 +15673,7 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>14</v>
@@ -15697,7 +15694,7 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>15</v>
@@ -15718,7 +15715,7 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>16</v>
@@ -15739,7 +15736,7 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>17</v>
@@ -15760,7 +15757,7 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>18</v>
@@ -15781,7 +15778,7 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>19</v>
@@ -15802,7 +15799,7 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>20</v>
@@ -15823,13 +15820,13 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>8</v>
@@ -15844,7 +15841,7 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>22</v>
@@ -15865,7 +15862,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>23</v>
@@ -15886,7 +15883,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="A688" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>24</v>
@@ -15907,7 +15904,7 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>25</v>
@@ -15928,7 +15925,7 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>26</v>
@@ -15949,7 +15946,7 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>27</v>
@@ -15970,7 +15967,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>29</v>
@@ -15991,7 +15988,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="A693" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>30</v>
@@ -16012,7 +16009,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>31</v>
@@ -16033,7 +16030,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>32</v>
@@ -16054,7 +16051,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="A696" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>33</v>
@@ -16075,7 +16072,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="A697" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>34</v>
@@ -16096,7 +16093,7 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>35</v>
@@ -16108,7 +16105,7 @@
         <v>8</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G698" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16117,7 +16114,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>36</v>
@@ -16138,7 +16135,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>37</v>
@@ -16159,7 +16156,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>38</v>
@@ -16180,7 +16177,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="A702" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>39</v>
@@ -16201,7 +16198,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="A703" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>40</v>
@@ -16222,7 +16219,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="A704" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>41</v>
@@ -16243,7 +16240,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="A705" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>42</v>
@@ -16264,7 +16261,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="A706" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>43</v>
@@ -16285,7 +16282,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="A707" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>44</v>
@@ -16306,7 +16303,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="A708" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>45</v>
@@ -16327,7 +16324,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="A709" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>46</v>
@@ -16348,7 +16345,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="A710" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>47</v>
@@ -16369,7 +16366,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="A711" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>48</v>
@@ -16390,7 +16387,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="A712" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>49</v>
@@ -16411,7 +16408,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="A713" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>50</v>
@@ -16432,7 +16429,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="A714" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>51</v>
@@ -16453,7 +16450,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="A715" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>52</v>
@@ -16474,7 +16471,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="A716" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>53</v>
@@ -16495,7 +16492,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="A717" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>54</v>
@@ -16516,7 +16513,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="A718" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>55</v>
@@ -16537,7 +16534,7 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>56</v>
@@ -16558,7 +16555,7 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>57</v>
@@ -16579,7 +16576,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>58</v>
@@ -16600,7 +16597,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>59</v>
@@ -16621,7 +16618,7 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>60</v>
@@ -16642,7 +16639,7 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>61</v>
@@ -16663,7 +16660,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>62</v>
@@ -16684,7 +16681,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>63</v>
@@ -16705,7 +16702,7 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>64</v>
@@ -16726,7 +16723,7 @@
     </row>
     <row r="728" spans="1:7">
       <c r="A728" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>65</v>
@@ -16747,7 +16744,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>66</v>
@@ -16768,7 +16765,7 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>67</v>
@@ -16789,7 +16786,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>68</v>
@@ -16810,7 +16807,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>69</v>
@@ -16831,13 +16828,13 @@
     </row>
     <row r="733" spans="1:7">
       <c r="A733" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>8</v>
@@ -16852,7 +16849,7 @@
     </row>
     <row r="734" spans="1:7" ht="15">
       <c r="A734" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>71</v>
@@ -16864,7 +16861,7 @@
         <v>8</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G734" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16873,7 +16870,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>72</v>
@@ -16894,7 +16891,7 @@
     </row>
     <row r="736" spans="1:7" ht="15">
       <c r="A736" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>73</v>
@@ -16906,7 +16903,7 @@
         <v>8</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G736" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16915,7 +16912,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="A737" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>74</v>
@@ -16936,7 +16933,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="A738" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>75</v>
@@ -16957,7 +16954,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>76</v>
@@ -16978,7 +16975,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>77</v>
@@ -16999,7 +16996,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>78</v>
@@ -17020,13 +17017,13 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>8</v>
@@ -17041,7 +17038,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>82</v>
@@ -17062,7 +17059,7 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>83</v>
@@ -17083,7 +17080,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="A745" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>84</v>
@@ -17104,7 +17101,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="A746" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>85</v>
@@ -17116,7 +17113,7 @@
         <v>8</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G746" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17125,7 +17122,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="A747" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>86</v>
@@ -17146,7 +17143,7 @@
     </row>
     <row r="748" spans="1:7">
       <c r="A748" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>87</v>
@@ -17167,13 +17164,13 @@
     </row>
     <row r="749" spans="1:7">
       <c r="A749" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D749" s="1" t="s">
         <v>8</v>
@@ -17183,12 +17180,12 @@
       </c>
       <c r="G749" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Fe1 /14160</v>
+        <v>Fe1/14160</v>
       </c>
     </row>
     <row r="750" spans="1:7">
       <c r="A750" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>89</v>
@@ -17209,7 +17206,7 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>90</v>
@@ -17230,7 +17227,7 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>91</v>
@@ -17251,7 +17248,7 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>92</v>
@@ -17272,7 +17269,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="A754" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>93</v>
@@ -17293,7 +17290,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="A755" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>94</v>
@@ -17314,7 +17311,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>95</v>
@@ -17335,7 +17332,7 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>96</v>
@@ -17356,7 +17353,7 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>97</v>
@@ -17377,7 +17374,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="A759" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>98</v>
@@ -17389,7 +17386,7 @@
         <v>8</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G759" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17398,7 +17395,7 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>99</v>
@@ -17419,13 +17416,13 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D761" s="1" t="s">
         <v>8</v>
@@ -17440,7 +17437,7 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>101</v>
@@ -17461,7 +17458,7 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>102</v>
@@ -17482,7 +17479,7 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>103</v>
@@ -17494,7 +17491,7 @@
         <v>8</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G764" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17503,7 +17500,7 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>104</v>
@@ -17524,7 +17521,7 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>105</v>
@@ -17545,7 +17542,7 @@
     </row>
     <row r="767" spans="1:7">
       <c r="A767" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>106</v>
@@ -17566,7 +17563,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>107</v>
@@ -17587,7 +17584,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="A769" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>108</v>
@@ -17608,19 +17605,19 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C770" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E770" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D770" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E770" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="G770" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17629,19 +17626,19 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C771" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E771" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D771" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E771" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="G771" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17650,19 +17647,19 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C772" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E772" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D772" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E772" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G772" s="1" t="str">
         <f t="shared" ref="G772:G835" si="12">(C772 &amp; D772 &amp; E772)</f>
@@ -17671,19 +17668,19 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C773" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E773" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D773" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E773" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="G773" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17692,19 +17689,19 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C774" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E774" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D774" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E774" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G774" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17713,19 +17710,19 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C775" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E775" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D775" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E775" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G775" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17734,19 +17731,19 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C776" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E776" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D776" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E776" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G776" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17755,7 +17752,7 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>17</v>
@@ -17767,7 +17764,7 @@
         <v>8</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G777" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17776,19 +17773,19 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C778" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E778" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D778" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E778" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G778" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17797,19 +17794,19 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D779" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G779" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17818,19 +17815,19 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D780" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G780" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17839,19 +17836,19 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D781" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G781" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17860,19 +17857,19 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D782" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G782" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17881,19 +17878,19 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D783" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G783" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17902,7 +17899,7 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>26</v>
@@ -17914,7 +17911,7 @@
         <v>8</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G784" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17923,19 +17920,19 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D785" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G785" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17944,19 +17941,19 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D786" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G786" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17965,19 +17962,19 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D787" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G787" s="1" t="str">
         <f t="shared" si="12"/>
@@ -17986,19 +17983,19 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C788" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E788" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D788" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E788" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="G788" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18007,19 +18004,19 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D789" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G789" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18028,19 +18025,19 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D790" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G790" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18049,19 +18046,19 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D791" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G791" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18070,19 +18067,19 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D792" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G792" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18091,19 +18088,19 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D793" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G793" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18112,19 +18109,19 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D794" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G794" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18133,19 +18130,19 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G795" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18154,19 +18151,19 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G796" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18175,19 +18172,19 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G797" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18196,19 +18193,19 @@
     </row>
     <row r="798" spans="1:7">
       <c r="A798" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G798" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18217,19 +18214,19 @@
     </row>
     <row r="799" spans="1:7">
       <c r="A799" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D799" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G799" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18238,19 +18235,19 @@
     </row>
     <row r="800" spans="1:7">
       <c r="A800" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D800" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G800" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18259,19 +18256,19 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D801" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G801" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18280,19 +18277,19 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D802" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G802" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18301,19 +18298,19 @@
     </row>
     <row r="803" spans="1:7">
       <c r="A803" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D803" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G803" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18322,19 +18319,19 @@
     </row>
     <row r="804" spans="1:7">
       <c r="A804" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D804" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G804" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18343,19 +18340,19 @@
     </row>
     <row r="805" spans="1:7">
       <c r="A805" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D805" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G805" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18364,19 +18361,19 @@
     </row>
     <row r="806" spans="1:7">
       <c r="A806" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G806" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18385,19 +18382,19 @@
     </row>
     <row r="807" spans="1:7">
       <c r="A807" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D807" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G807" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18406,19 +18403,19 @@
     </row>
     <row r="808" spans="1:7">
       <c r="A808" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G808" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18427,19 +18424,19 @@
     </row>
     <row r="809" spans="1:7">
       <c r="A809" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G809" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18448,19 +18445,19 @@
     </row>
     <row r="810" spans="1:7">
       <c r="A810" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G810" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18469,19 +18466,19 @@
     </row>
     <row r="811" spans="1:7">
       <c r="A811" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G811" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18490,19 +18487,19 @@
     </row>
     <row r="812" spans="1:7">
       <c r="A812" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G812" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18511,19 +18508,19 @@
     </row>
     <row r="813" spans="1:7">
       <c r="A813" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G813" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18532,19 +18529,19 @@
     </row>
     <row r="814" spans="1:7">
       <c r="A814" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G814" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18553,19 +18550,19 @@
     </row>
     <row r="815" spans="1:7">
       <c r="A815" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G815" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18574,19 +18571,19 @@
     </row>
     <row r="816" spans="1:7">
       <c r="A816" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G816" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18595,19 +18592,19 @@
     </row>
     <row r="817" spans="1:7">
       <c r="A817" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G817" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18616,19 +18613,19 @@
     </row>
     <row r="818" spans="1:7">
       <c r="A818" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G818" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18637,19 +18634,19 @@
     </row>
     <row r="819" spans="1:7">
       <c r="A819" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G819" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18658,19 +18655,19 @@
     </row>
     <row r="820" spans="1:7">
       <c r="A820" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G820" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18679,19 +18676,19 @@
     </row>
     <row r="821" spans="1:7">
       <c r="A821" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G821" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18700,19 +18697,19 @@
     </row>
     <row r="822" spans="1:7">
       <c r="A822" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G822" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18721,19 +18718,19 @@
     </row>
     <row r="823" spans="1:7">
       <c r="A823" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D823" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G823" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18742,19 +18739,19 @@
     </row>
     <row r="824" spans="1:7">
       <c r="A824" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D824" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G824" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18763,19 +18760,19 @@
     </row>
     <row r="825" spans="1:7">
       <c r="A825" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G825" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18784,7 +18781,7 @@
     </row>
     <row r="826" spans="1:7">
       <c r="A826" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B826" s="1" t="s">
         <v>77</v>
@@ -18796,7 +18793,7 @@
         <v>8</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G826" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18805,19 +18802,19 @@
     </row>
     <row r="827" spans="1:7">
       <c r="A827" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G827" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18826,19 +18823,19 @@
     </row>
     <row r="828" spans="1:7">
       <c r="A828" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G828" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18847,19 +18844,19 @@
     </row>
     <row r="829" spans="1:7">
       <c r="A829" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G829" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18868,19 +18865,19 @@
     </row>
     <row r="830" spans="1:7">
       <c r="A830" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G830" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18889,19 +18886,19 @@
     </row>
     <row r="831" spans="1:7">
       <c r="A831" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G831" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18910,19 +18907,19 @@
     </row>
     <row r="832" spans="1:7">
       <c r="A832" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G832" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18931,19 +18928,19 @@
     </row>
     <row r="833" spans="1:7">
       <c r="A833" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G833" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18952,19 +18949,19 @@
     </row>
     <row r="834" spans="1:7">
       <c r="A834" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G834" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18973,19 +18970,19 @@
     </row>
     <row r="835" spans="1:7">
       <c r="A835" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G835" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18994,19 +18991,19 @@
     </row>
     <row r="836" spans="1:7">
       <c r="A836" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G836" s="1" t="str">
         <f t="shared" ref="G836:G899" si="13">(C836 &amp; D836 &amp; E836)</f>
@@ -19015,7 +19012,7 @@
     </row>
     <row r="837" spans="1:7" ht="15">
       <c r="A837" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>92</v>
@@ -19027,7 +19024,7 @@
         <v>8</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G837" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19036,19 +19033,19 @@
     </row>
     <row r="838" spans="1:7">
       <c r="A838" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G838" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19057,19 +19054,19 @@
     </row>
     <row r="839" spans="1:7">
       <c r="A839" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G839" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19078,19 +19075,19 @@
     </row>
     <row r="840" spans="1:7">
       <c r="A840" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G840" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19099,19 +19096,19 @@
     </row>
     <row r="841" spans="1:7">
       <c r="A841" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G841" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19120,19 +19117,19 @@
     </row>
     <row r="842" spans="1:7">
       <c r="A842" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G842" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19141,19 +19138,19 @@
     </row>
     <row r="843" spans="1:7">
       <c r="A843" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G843" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19162,7 +19159,7 @@
     </row>
     <row r="844" spans="1:7" ht="15">
       <c r="A844" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B844" s="1" t="s">
         <v>101</v>
@@ -19174,7 +19171,7 @@
         <v>8</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G844" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19183,19 +19180,19 @@
     </row>
     <row r="845" spans="1:7">
       <c r="A845" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G845" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19204,19 +19201,19 @@
     </row>
     <row r="846" spans="1:7">
       <c r="A846" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G846" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19225,19 +19222,19 @@
     </row>
     <row r="847" spans="1:7">
       <c r="A847" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G847" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19246,19 +19243,19 @@
     </row>
     <row r="848" spans="1:7">
       <c r="A848" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G848" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19267,19 +19264,19 @@
     </row>
     <row r="849" spans="1:7">
       <c r="A849" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D849" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G849" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19288,19 +19285,19 @@
     </row>
     <row r="850" spans="1:7">
       <c r="A850" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G850" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19309,19 +19306,19 @@
     </row>
     <row r="851" spans="1:7">
       <c r="A851" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G851" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19330,19 +19327,19 @@
     </row>
     <row r="852" spans="1:7">
       <c r="A852" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G852" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19351,19 +19348,19 @@
     </row>
     <row r="853" spans="1:7">
       <c r="A853" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D853" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G853" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19372,19 +19369,19 @@
     </row>
     <row r="854" spans="1:7">
       <c r="A854" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G854" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19393,19 +19390,19 @@
     </row>
     <row r="855" spans="1:7">
       <c r="A855" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G855" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19414,19 +19411,19 @@
     </row>
     <row r="856" spans="1:7">
       <c r="A856" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D856" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G856" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19435,19 +19432,19 @@
     </row>
     <row r="857" spans="1:7">
       <c r="A857" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D857" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G857" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19456,19 +19453,19 @@
     </row>
     <row r="858" spans="1:7">
       <c r="A858" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G858" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19477,19 +19474,19 @@
     </row>
     <row r="859" spans="1:7">
       <c r="A859" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G859" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19498,19 +19495,19 @@
     </row>
     <row r="860" spans="1:7">
       <c r="A860" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G860" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19519,19 +19516,19 @@
     </row>
     <row r="861" spans="1:7">
       <c r="A861" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G861" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19540,19 +19537,19 @@
     </row>
     <row r="862" spans="1:7">
       <c r="A862" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G862" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19561,19 +19558,19 @@
     </row>
     <row r="863" spans="1:7">
       <c r="A863" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G863" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19582,19 +19579,19 @@
     </row>
     <row r="864" spans="1:7">
       <c r="A864" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G864" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19603,19 +19600,19 @@
     </row>
     <row r="865" spans="1:7">
       <c r="A865" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B865" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G865" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19624,19 +19621,19 @@
     </row>
     <row r="866" spans="1:7">
       <c r="A866" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G866" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19645,19 +19642,19 @@
     </row>
     <row r="867" spans="1:7">
       <c r="A867" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G867" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19666,19 +19663,19 @@
     </row>
     <row r="868" spans="1:7">
       <c r="A868" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G868" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19687,19 +19684,19 @@
     </row>
     <row r="869" spans="1:7">
       <c r="A869" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D869" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G869" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19708,19 +19705,19 @@
     </row>
     <row r="870" spans="1:7">
       <c r="A870" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D870" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G870" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19729,19 +19726,19 @@
     </row>
     <row r="871" spans="1:7">
       <c r="A871" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D871" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G871" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19750,19 +19747,19 @@
     </row>
     <row r="872" spans="1:7">
       <c r="A872" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G872" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19771,19 +19768,19 @@
     </row>
     <row r="873" spans="1:7">
       <c r="A873" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D873" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G873" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19792,19 +19789,19 @@
     </row>
     <row r="874" spans="1:7">
       <c r="A874" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D874" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G874" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19813,19 +19810,19 @@
     </row>
     <row r="875" spans="1:7">
       <c r="A875" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D875" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G875" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19834,19 +19831,19 @@
     </row>
     <row r="876" spans="1:7">
       <c r="A876" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D876" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G876" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19855,19 +19852,19 @@
     </row>
     <row r="877" spans="1:7">
       <c r="A877" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D877" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G877" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19876,19 +19873,19 @@
     </row>
     <row r="878" spans="1:7">
       <c r="A878" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G878" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19897,19 +19894,19 @@
     </row>
     <row r="879" spans="1:7">
       <c r="A879" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G879" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19918,19 +19915,19 @@
     </row>
     <row r="880" spans="1:7">
       <c r="A880" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G880" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19939,19 +19936,19 @@
     </row>
     <row r="881" spans="1:7">
       <c r="A881" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G881" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19960,19 +19957,19 @@
     </row>
     <row r="882" spans="1:7">
       <c r="A882" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G882" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19981,19 +19978,19 @@
     </row>
     <row r="883" spans="1:7">
       <c r="A883" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G883" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20002,19 +19999,19 @@
     </row>
     <row r="884" spans="1:7">
       <c r="A884" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G884" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20023,19 +20020,19 @@
     </row>
     <row r="885" spans="1:7">
       <c r="A885" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G885" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20044,19 +20041,19 @@
     </row>
     <row r="886" spans="1:7">
       <c r="A886" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G886" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20065,19 +20062,19 @@
     </row>
     <row r="887" spans="1:7">
       <c r="A887" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G887" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20086,19 +20083,19 @@
     </row>
     <row r="888" spans="1:7">
       <c r="A888" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B888" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G888" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20107,7 +20104,7 @@
     </row>
     <row r="889" spans="1:7">
       <c r="A889" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>56</v>
@@ -20119,7 +20116,7 @@
         <v>8</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G889" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20128,19 +20125,19 @@
     </row>
     <row r="890" spans="1:7">
       <c r="A890" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G890" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20149,19 +20146,19 @@
     </row>
     <row r="891" spans="1:7">
       <c r="A891" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G891" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20170,19 +20167,19 @@
     </row>
     <row r="892" spans="1:7">
       <c r="A892" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G892" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20191,19 +20188,19 @@
     </row>
     <row r="893" spans="1:7">
       <c r="A893" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B893" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G893" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20212,19 +20209,19 @@
     </row>
     <row r="894" spans="1:7">
       <c r="A894" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G894" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20233,19 +20230,19 @@
     </row>
     <row r="895" spans="1:7">
       <c r="A895" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B895" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G895" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20254,19 +20251,19 @@
     </row>
     <row r="896" spans="1:7">
       <c r="A896" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G896" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20275,19 +20272,19 @@
     </row>
     <row r="897" spans="1:7">
       <c r="A897" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G897" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20296,19 +20293,19 @@
     </row>
     <row r="898" spans="1:7">
       <c r="A898" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B898" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G898" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20317,19 +20314,19 @@
     </row>
     <row r="899" spans="1:7">
       <c r="A899" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G899" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20338,19 +20335,19 @@
     </row>
     <row r="900" spans="1:7">
       <c r="A900" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B900" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D900" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G900" s="1" t="str">
         <f t="shared" ref="G900:G929" si="14">(C900 &amp; D900 &amp; E900)</f>
@@ -20359,19 +20356,19 @@
     </row>
     <row r="901" spans="1:7">
       <c r="A901" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B901" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G901" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20380,19 +20377,19 @@
     </row>
     <row r="902" spans="1:7">
       <c r="A902" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G902" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20401,19 +20398,19 @@
     </row>
     <row r="903" spans="1:7">
       <c r="A903" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G903" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20422,19 +20419,19 @@
     </row>
     <row r="904" spans="1:7">
       <c r="A904" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B904" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G904" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20443,19 +20440,19 @@
     </row>
     <row r="905" spans="1:7">
       <c r="A905" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D905" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E905" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G905" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20464,7 +20461,7 @@
     </row>
     <row r="906" spans="1:7" ht="15">
       <c r="A906" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>77</v>
@@ -20476,7 +20473,7 @@
         <v>8</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G906" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20485,19 +20482,19 @@
     </row>
     <row r="907" spans="1:7">
       <c r="A907" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E907" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G907" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20506,19 +20503,19 @@
     </row>
     <row r="908" spans="1:7">
       <c r="A908" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D908" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G908" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20527,19 +20524,19 @@
     </row>
     <row r="909" spans="1:7">
       <c r="A909" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D909" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G909" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20548,19 +20545,19 @@
     </row>
     <row r="910" spans="1:7">
       <c r="A910" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G910" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20569,7 +20566,7 @@
     </row>
     <row r="911" spans="1:7" ht="15">
       <c r="A911" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>86</v>
@@ -20581,7 +20578,7 @@
         <v>8</v>
       </c>
       <c r="E911" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G911" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20590,19 +20587,19 @@
     </row>
     <row r="912" spans="1:7">
       <c r="A912" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D912" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E912" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G912" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20611,19 +20608,19 @@
     </row>
     <row r="913" spans="1:7">
       <c r="A913" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B913" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G913" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20632,19 +20629,19 @@
     </row>
     <row r="914" spans="1:7">
       <c r="A914" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D914" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E914" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G914" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20653,7 +20650,7 @@
     </row>
     <row r="915" spans="1:7">
       <c r="A915" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>90</v>
@@ -20665,7 +20662,7 @@
         <v>8</v>
       </c>
       <c r="E915" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G915" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20674,19 +20671,19 @@
     </row>
     <row r="916" spans="1:7">
       <c r="A916" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E916" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G916" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20695,19 +20692,19 @@
     </row>
     <row r="917" spans="1:7">
       <c r="A917" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D917" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E917" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G917" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20716,19 +20713,19 @@
     </row>
     <row r="918" spans="1:7">
       <c r="A918" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D918" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E918" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G918" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20737,19 +20734,19 @@
     </row>
     <row r="919" spans="1:7">
       <c r="A919" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B919" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D919" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E919" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G919" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20758,19 +20755,19 @@
     </row>
     <row r="920" spans="1:7">
       <c r="A920" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D920" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E920" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G920" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20779,19 +20776,19 @@
     </row>
     <row r="921" spans="1:7">
       <c r="A921" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B921" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E921" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G921" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20800,19 +20797,19 @@
     </row>
     <row r="922" spans="1:7">
       <c r="A922" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E922" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G922" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20821,19 +20818,19 @@
     </row>
     <row r="923" spans="1:7">
       <c r="A923" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G923" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20842,19 +20839,19 @@
     </row>
     <row r="924" spans="1:7">
       <c r="A924" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D924" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G924" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20863,19 +20860,19 @@
     </row>
     <row r="925" spans="1:7">
       <c r="A925" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B925" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D925" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E925" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G925" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20884,19 +20881,19 @@
     </row>
     <row r="926" spans="1:7">
       <c r="A926" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G926" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20905,19 +20902,19 @@
     </row>
     <row r="927" spans="1:7">
       <c r="A927" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G927" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20926,19 +20923,19 @@
     </row>
     <row r="928" spans="1:7">
       <c r="A928" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G928" s="1" t="str">
         <f t="shared" si="14"/>
@@ -20947,19 +20944,19 @@
     </row>
     <row r="929" spans="1:7">
       <c r="A929" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G929" s="1" t="str">
         <f t="shared" si="14"/>

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17360" windowHeight="14020" tabRatio="991"/>
+    <workbookView xWindow="9820" yWindow="0" windowWidth="17360" windowHeight="14020" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="E764" sqref="E764"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="E609" sqref="E609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -1075,8 +1075,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1100,7 +1102,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1109,6 +1111,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1117,6 +1120,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1448,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="E609" sqref="E609"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="D433" sqref="D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/source_data/DNA_plates.xlsx
+++ b/source_data/DNA_plates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="17720" yWindow="0" windowWidth="11280" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -981,18 +981,6 @@
     <t>plate_10</t>
   </si>
   <si>
-    <t>neg.control_plate_10</t>
-  </si>
-  <si>
-    <t>ColiGuard_plate_10</t>
-  </si>
-  <si>
-    <t>Protexin_plate_10</t>
-  </si>
-  <si>
-    <t>neg.control_plate_10.2</t>
-  </si>
-  <si>
     <t>plate_1</t>
   </si>
   <si>
@@ -1018,13 +1006,25 @@
   </si>
   <si>
     <t>plate_9</t>
+  </si>
+  <si>
+    <t>neg.control_P10</t>
+  </si>
+  <si>
+    <t>neg.control_P10.2</t>
+  </si>
+  <si>
+    <t>ColiGuard_P10</t>
+  </si>
+  <si>
+    <t>Protexin_P10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1049,6 +1049,22 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1067,8 +1083,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1078,7 +1096,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1410,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
-      <selection activeCell="E932" sqref="E932"/>
+    <sheetView tabSelected="1" topLeftCell="B890" workbookViewId="0">
+      <selection activeCell="E915" sqref="E915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1443,7 +1463,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1464,7 +1484,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1485,7 +1505,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1506,7 +1526,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1527,7 +1547,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1548,7 +1568,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1569,7 +1589,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1590,7 +1610,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1611,7 +1631,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1632,7 +1652,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1653,7 +1673,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1674,7 +1694,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1695,7 +1715,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1716,7 +1736,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -1737,7 +1757,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1758,7 +1778,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -1779,7 +1799,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -1800,7 +1820,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -1821,7 +1841,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1842,7 +1862,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -1863,7 +1883,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -1884,7 +1904,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
@@ -1905,7 +1925,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -1926,7 +1946,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -1947,7 +1967,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -1968,7 +1988,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>36</v>
@@ -1989,7 +2009,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>37</v>
@@ -2010,7 +2030,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>38</v>
@@ -2031,7 +2051,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
@@ -2052,7 +2072,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>40</v>
@@ -2073,7 +2093,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
@@ -2094,7 +2114,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
@@ -2115,7 +2135,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
@@ -2136,7 +2156,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
@@ -2157,7 +2177,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>45</v>
@@ -2178,7 +2198,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
@@ -2199,7 +2219,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>47</v>
@@ -2220,7 +2240,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
@@ -2241,7 +2261,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>49</v>
@@ -2262,7 +2282,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
@@ -2283,7 +2303,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>51</v>
@@ -2304,7 +2324,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
@@ -2325,7 +2345,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>53</v>
@@ -2346,7 +2366,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -2367,7 +2387,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>55</v>
@@ -2388,7 +2408,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>56</v>
@@ -2409,7 +2429,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>57</v>
@@ -2430,7 +2450,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>58</v>
@@ -2451,7 +2471,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>59</v>
@@ -2472,7 +2492,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>60</v>
@@ -2493,7 +2513,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>61</v>
@@ -2514,7 +2534,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>62</v>
@@ -2535,7 +2555,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>63</v>
@@ -2556,7 +2576,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>64</v>
@@ -2577,7 +2597,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>65</v>
@@ -2598,7 +2618,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>67</v>
@@ -2619,7 +2639,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>68</v>
@@ -2640,7 +2660,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
@@ -2661,7 +2681,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>70</v>
@@ -2682,7 +2702,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>71</v>
@@ -2703,7 +2723,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>72</v>
@@ -2724,7 +2744,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>73</v>
@@ -2745,7 +2765,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>74</v>
@@ -2766,7 +2786,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>75</v>
@@ -2787,7 +2807,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>76</v>
@@ -2808,7 +2828,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>77</v>
@@ -2829,7 +2849,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>78</v>
@@ -2850,7 +2870,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>79</v>
@@ -2871,7 +2891,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>82</v>
@@ -2892,7 +2912,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>83</v>
@@ -2913,7 +2933,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>84</v>
@@ -2934,7 +2954,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>85</v>
@@ -2955,7 +2975,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -2976,7 +2996,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>87</v>
@@ -2997,7 +3017,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>88</v>
@@ -3018,7 +3038,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>89</v>
@@ -3039,7 +3059,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>90</v>
@@ -3060,7 +3080,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>91</v>
@@ -3081,7 +3101,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>92</v>
@@ -3102,7 +3122,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>93</v>
@@ -3123,7 +3143,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>94</v>
@@ -3144,7 +3164,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>95</v>
@@ -3165,7 +3185,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>96</v>
@@ -3186,7 +3206,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>97</v>
@@ -3207,7 +3227,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>98</v>
@@ -3228,7 +3248,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>99</v>
@@ -3249,7 +3269,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>100</v>
@@ -3270,7 +3290,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>101</v>
@@ -3291,7 +3311,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>102</v>
@@ -3312,7 +3332,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>103</v>
@@ -3333,7 +3353,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>104</v>
@@ -3354,7 +3374,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>105</v>
@@ -3375,7 +3395,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>106</v>
@@ -3396,7 +3416,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>107</v>
@@ -3417,7 +3437,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>108</v>
@@ -3438,7 +3458,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>109</v>
@@ -3459,7 +3479,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>5</v>
@@ -3480,7 +3500,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
@@ -3501,7 +3521,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -3522,7 +3542,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>11</v>
@@ -3543,7 +3563,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>13</v>
@@ -3564,7 +3584,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>14</v>
@@ -3585,7 +3605,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>15</v>
@@ -3606,7 +3626,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>16</v>
@@ -3627,7 +3647,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>17</v>
@@ -3648,7 +3668,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>18</v>
@@ -3669,7 +3689,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>19</v>
@@ -3690,7 +3710,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>20</v>
@@ -3711,7 +3731,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>21</v>
@@ -3732,7 +3752,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>22</v>
@@ -3753,7 +3773,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>23</v>
@@ -3774,7 +3794,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>24</v>
@@ -3795,7 +3815,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>25</v>
@@ -3816,7 +3836,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>26</v>
@@ -3837,7 +3857,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>29</v>
@@ -3858,7 +3878,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>30</v>
@@ -3879,7 +3899,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>31</v>
@@ -3900,7 +3920,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>32</v>
@@ -3921,7 +3941,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>33</v>
@@ -3942,7 +3962,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>34</v>
@@ -3963,7 +3983,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>35</v>
@@ -3984,7 +4004,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>36</v>
@@ -4005,7 +4025,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>37</v>
@@ -4026,7 +4046,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>38</v>
@@ -4047,7 +4067,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>39</v>
@@ -4068,7 +4088,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>40</v>
@@ -4089,7 +4109,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>41</v>
@@ -4110,7 +4130,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>42</v>
@@ -4131,7 +4151,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>43</v>
@@ -4152,7 +4172,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>44</v>
@@ -4173,7 +4193,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>45</v>
@@ -4194,7 +4214,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>46</v>
@@ -4215,7 +4235,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>47</v>
@@ -4236,7 +4256,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>48</v>
@@ -4257,7 +4277,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>49</v>
@@ -4278,7 +4298,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>50</v>
@@ -4299,7 +4319,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>51</v>
@@ -4320,7 +4340,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>52</v>
@@ -4341,7 +4361,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>53</v>
@@ -4362,7 +4382,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>54</v>
@@ -4383,7 +4403,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>55</v>
@@ -4404,7 +4424,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>56</v>
@@ -4425,7 +4445,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>57</v>
@@ -4446,7 +4466,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>58</v>
@@ -4467,7 +4487,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>59</v>
@@ -4488,7 +4508,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>60</v>
@@ -4509,7 +4529,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>61</v>
@@ -4530,7 +4550,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>62</v>
@@ -4551,7 +4571,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>63</v>
@@ -4572,7 +4592,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>64</v>
@@ -4593,7 +4613,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>65</v>
@@ -4614,7 +4634,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>67</v>
@@ -4635,7 +4655,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>68</v>
@@ -4656,7 +4676,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>69</v>
@@ -4677,7 +4697,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>70</v>
@@ -4698,7 +4718,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>71</v>
@@ -4719,7 +4739,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>72</v>
@@ -4740,7 +4760,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>73</v>
@@ -4761,7 +4781,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>74</v>
@@ -4782,7 +4802,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>75</v>
@@ -4803,7 +4823,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>76</v>
@@ -4824,7 +4844,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>77</v>
@@ -4845,7 +4865,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>78</v>
@@ -4866,7 +4886,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>79</v>
@@ -4887,7 +4907,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>82</v>
@@ -4908,7 +4928,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>83</v>
@@ -4929,7 +4949,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>84</v>
@@ -4950,7 +4970,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>85</v>
@@ -4971,7 +4991,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>86</v>
@@ -4992,7 +5012,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>87</v>
@@ -5013,7 +5033,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>88</v>
@@ -5034,7 +5054,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>89</v>
@@ -5055,7 +5075,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>90</v>
@@ -5076,7 +5096,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>91</v>
@@ -5097,7 +5117,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>92</v>
@@ -5118,7 +5138,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>93</v>
@@ -5139,7 +5159,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>94</v>
@@ -5160,7 +5180,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>95</v>
@@ -5181,7 +5201,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>96</v>
@@ -5202,7 +5222,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>97</v>
@@ -5223,7 +5243,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>98</v>
@@ -5244,7 +5264,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>99</v>
@@ -5265,7 +5285,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>100</v>
@@ -5286,7 +5306,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>101</v>
@@ -5307,7 +5327,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>102</v>
@@ -5328,7 +5348,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>103</v>
@@ -5349,7 +5369,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>104</v>
@@ -5370,7 +5390,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>105</v>
@@ -5391,7 +5411,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>106</v>
@@ -5412,7 +5432,7 @@
     </row>
     <row r="191" spans="1:7" ht="15">
       <c r="A191" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>107</v>
@@ -5433,7 +5453,7 @@
     </row>
     <row r="192" spans="1:7" ht="15">
       <c r="A192" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>108</v>
@@ -5454,7 +5474,7 @@
     </row>
     <row r="193" spans="1:7" ht="15">
       <c r="A193" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>109</v>
@@ -5475,7 +5495,7 @@
     </row>
     <row r="194" spans="1:7" ht="15">
       <c r="A194" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>5</v>
@@ -5496,7 +5516,7 @@
     </row>
     <row r="195" spans="1:7" ht="15">
       <c r="A195" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>8</v>
@@ -5517,7 +5537,7 @@
     </row>
     <row r="196" spans="1:7" ht="15">
       <c r="A196" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>10</v>
@@ -5538,7 +5558,7 @@
     </row>
     <row r="197" spans="1:7" ht="15">
       <c r="A197" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>11</v>
@@ -5559,7 +5579,7 @@
     </row>
     <row r="198" spans="1:7" ht="15">
       <c r="A198" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>13</v>
@@ -5580,7 +5600,7 @@
     </row>
     <row r="199" spans="1:7" ht="15">
       <c r="A199" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>14</v>
@@ -5601,7 +5621,7 @@
     </row>
     <row r="200" spans="1:7" ht="15">
       <c r="A200" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>15</v>
@@ -5622,7 +5642,7 @@
     </row>
     <row r="201" spans="1:7" ht="15">
       <c r="A201" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>16</v>
@@ -5643,7 +5663,7 @@
     </row>
     <row r="202" spans="1:7" ht="15">
       <c r="A202" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>17</v>
@@ -5664,7 +5684,7 @@
     </row>
     <row r="203" spans="1:7" ht="15">
       <c r="A203" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>18</v>
@@ -5685,7 +5705,7 @@
     </row>
     <row r="204" spans="1:7" ht="15">
       <c r="A204" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>19</v>
@@ -5706,7 +5726,7 @@
     </row>
     <row r="205" spans="1:7" ht="15">
       <c r="A205" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>20</v>
@@ -5727,7 +5747,7 @@
     </row>
     <row r="206" spans="1:7" ht="15">
       <c r="A206" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>21</v>
@@ -5748,7 +5768,7 @@
     </row>
     <row r="207" spans="1:7" ht="15">
       <c r="A207" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>22</v>
@@ -5769,7 +5789,7 @@
     </row>
     <row r="208" spans="1:7" ht="15">
       <c r="A208" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>23</v>
@@ -5790,7 +5810,7 @@
     </row>
     <row r="209" spans="1:7" ht="15">
       <c r="A209" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>24</v>
@@ -5811,7 +5831,7 @@
     </row>
     <row r="210" spans="1:7" ht="15">
       <c r="A210" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>25</v>
@@ -5832,7 +5852,7 @@
     </row>
     <row r="211" spans="1:7" ht="15">
       <c r="A211" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>26</v>
@@ -5853,7 +5873,7 @@
     </row>
     <row r="212" spans="1:7" ht="15">
       <c r="A212" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>29</v>
@@ -5874,7 +5894,7 @@
     </row>
     <row r="213" spans="1:7" ht="15">
       <c r="A213" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>30</v>
@@ -5895,7 +5915,7 @@
     </row>
     <row r="214" spans="1:7" ht="15">
       <c r="A214" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>31</v>
@@ -5916,7 +5936,7 @@
     </row>
     <row r="215" spans="1:7" ht="15">
       <c r="A215" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>32</v>
@@ -5937,7 +5957,7 @@
     </row>
     <row r="216" spans="1:7" ht="15">
       <c r="A216" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>33</v>
@@ -5958,7 +5978,7 @@
     </row>
     <row r="217" spans="1:7" ht="15">
       <c r="A217" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>34</v>
@@ -5979,7 +5999,7 @@
     </row>
     <row r="218" spans="1:7" ht="15">
       <c r="A218" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>35</v>
@@ -6000,7 +6020,7 @@
     </row>
     <row r="219" spans="1:7" ht="15">
       <c r="A219" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>36</v>
@@ -6021,7 +6041,7 @@
     </row>
     <row r="220" spans="1:7" ht="15">
       <c r="A220" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>37</v>
@@ -6042,7 +6062,7 @@
     </row>
     <row r="221" spans="1:7" ht="15">
       <c r="A221" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>38</v>
@@ -6063,7 +6083,7 @@
     </row>
     <row r="222" spans="1:7" ht="15">
       <c r="A222" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>39</v>
@@ -6084,7 +6104,7 @@
     </row>
     <row r="223" spans="1:7" ht="15">
       <c r="A223" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>40</v>
@@ -6105,7 +6125,7 @@
     </row>
     <row r="224" spans="1:7" ht="15">
       <c r="A224" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>41</v>
@@ -6126,7 +6146,7 @@
     </row>
     <row r="225" spans="1:7" ht="15">
       <c r="A225" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>42</v>
@@ -6147,7 +6167,7 @@
     </row>
     <row r="226" spans="1:7" ht="15">
       <c r="A226" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>43</v>
@@ -6168,7 +6188,7 @@
     </row>
     <row r="227" spans="1:7" ht="15">
       <c r="A227" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>44</v>
@@ -6189,7 +6209,7 @@
     </row>
     <row r="228" spans="1:7" ht="15">
       <c r="A228" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>45</v>
@@ -6210,7 +6230,7 @@
     </row>
     <row r="229" spans="1:7" ht="15">
       <c r="A229" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>46</v>
@@ -6231,7 +6251,7 @@
     </row>
     <row r="230" spans="1:7" ht="15">
       <c r="A230" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>47</v>
@@ -6252,7 +6272,7 @@
     </row>
     <row r="231" spans="1:7" ht="15">
       <c r="A231" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>48</v>
@@ -6273,7 +6293,7 @@
     </row>
     <row r="232" spans="1:7" ht="15">
       <c r="A232" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>49</v>
@@ -6294,7 +6314,7 @@
     </row>
     <row r="233" spans="1:7" ht="15">
       <c r="A233" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>50</v>
@@ -6315,7 +6335,7 @@
     </row>
     <row r="234" spans="1:7" ht="15">
       <c r="A234" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>51</v>
@@ -6336,7 +6356,7 @@
     </row>
     <row r="235" spans="1:7" ht="15">
       <c r="A235" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>52</v>
@@ -6357,7 +6377,7 @@
     </row>
     <row r="236" spans="1:7" ht="15">
       <c r="A236" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>53</v>
@@ -6378,7 +6398,7 @@
     </row>
     <row r="237" spans="1:7" ht="15">
       <c r="A237" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>54</v>
@@ -6399,7 +6419,7 @@
     </row>
     <row r="238" spans="1:7" ht="15">
       <c r="A238" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>55</v>
@@ -6420,7 +6440,7 @@
     </row>
     <row r="239" spans="1:7" ht="15">
       <c r="A239" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>56</v>
@@ -6441,7 +6461,7 @@
     </row>
     <row r="240" spans="1:7" ht="15">
       <c r="A240" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>57</v>
@@ -6462,7 +6482,7 @@
     </row>
     <row r="241" spans="1:7" ht="15">
       <c r="A241" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>58</v>
@@ -6483,7 +6503,7 @@
     </row>
     <row r="242" spans="1:7" ht="15">
       <c r="A242" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>59</v>
@@ -6504,7 +6524,7 @@
     </row>
     <row r="243" spans="1:7" ht="15">
       <c r="A243" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>60</v>
@@ -6525,7 +6545,7 @@
     </row>
     <row r="244" spans="1:7" ht="15">
       <c r="A244" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>61</v>
@@ -6546,7 +6566,7 @@
     </row>
     <row r="245" spans="1:7" ht="15">
       <c r="A245" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>62</v>
@@ -6567,7 +6587,7 @@
     </row>
     <row r="246" spans="1:7" ht="15">
       <c r="A246" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>63</v>
@@ -6588,7 +6608,7 @@
     </row>
     <row r="247" spans="1:7" ht="15">
       <c r="A247" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>64</v>
@@ -6609,7 +6629,7 @@
     </row>
     <row r="248" spans="1:7" ht="15">
       <c r="A248" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>65</v>
@@ -6630,7 +6650,7 @@
     </row>
     <row r="249" spans="1:7" ht="15">
       <c r="A249" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>67</v>
@@ -6651,7 +6671,7 @@
     </row>
     <row r="250" spans="1:7" ht="15">
       <c r="A250" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>68</v>
@@ -6672,7 +6692,7 @@
     </row>
     <row r="251" spans="1:7" ht="15">
       <c r="A251" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>69</v>
@@ -6693,7 +6713,7 @@
     </row>
     <row r="252" spans="1:7" ht="15">
       <c r="A252" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>70</v>
@@ -6714,7 +6734,7 @@
     </row>
     <row r="253" spans="1:7" ht="15">
       <c r="A253" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>71</v>
@@ -6735,7 +6755,7 @@
     </row>
     <row r="254" spans="1:7" ht="15">
       <c r="A254" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>72</v>
@@ -6756,7 +6776,7 @@
     </row>
     <row r="255" spans="1:7" ht="15">
       <c r="A255" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>73</v>
@@ -6777,7 +6797,7 @@
     </row>
     <row r="256" spans="1:7" ht="15">
       <c r="A256" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>74</v>
@@ -6798,7 +6818,7 @@
     </row>
     <row r="257" spans="1:7" ht="15">
       <c r="A257" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>75</v>
@@ -6819,7 +6839,7 @@
     </row>
     <row r="258" spans="1:7" ht="15">
       <c r="A258" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>76</v>
@@ -6840,7 +6860,7 @@
     </row>
     <row r="259" spans="1:7" ht="15">
       <c r="A259" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>77</v>
@@ -6861,7 +6881,7 @@
     </row>
     <row r="260" spans="1:7" ht="15">
       <c r="A260" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>78</v>
@@ -6882,7 +6902,7 @@
     </row>
     <row r="261" spans="1:7" ht="15">
       <c r="A261" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>79</v>
@@ -6903,7 +6923,7 @@
     </row>
     <row r="262" spans="1:7" ht="15">
       <c r="A262" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>82</v>
@@ -6924,7 +6944,7 @@
     </row>
     <row r="263" spans="1:7" ht="15">
       <c r="A263" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>83</v>
@@ -6945,7 +6965,7 @@
     </row>
     <row r="264" spans="1:7" ht="15">
       <c r="A264" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>84</v>
@@ -6966,7 +6986,7 @@
     </row>
     <row r="265" spans="1:7" ht="15">
       <c r="A265" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>85</v>
@@ -6987,7 +7007,7 @@
     </row>
     <row r="266" spans="1:7" ht="15">
       <c r="A266" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>86</v>
@@ -7008,7 +7028,7 @@
     </row>
     <row r="267" spans="1:7" ht="15">
       <c r="A267" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>87</v>
@@ -7029,7 +7049,7 @@
     </row>
     <row r="268" spans="1:7" ht="15">
       <c r="A268" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>88</v>
@@ -7050,7 +7070,7 @@
     </row>
     <row r="269" spans="1:7" ht="15">
       <c r="A269" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>89</v>
@@ -7071,7 +7091,7 @@
     </row>
     <row r="270" spans="1:7" ht="15">
       <c r="A270" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>90</v>
@@ -7092,7 +7112,7 @@
     </row>
     <row r="271" spans="1:7" ht="15">
       <c r="A271" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>91</v>
@@ -7113,7 +7133,7 @@
     </row>
     <row r="272" spans="1:7" ht="15">
       <c r="A272" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>92</v>
@@ -7134,7 +7154,7 @@
     </row>
     <row r="273" spans="1:7" ht="15">
       <c r="A273" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>93</v>
@@ -7155,7 +7175,7 @@
     </row>
     <row r="274" spans="1:7" ht="15">
       <c r="A274" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>94</v>
@@ -7176,7 +7196,7 @@
     </row>
     <row r="275" spans="1:7" ht="15">
       <c r="A275" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>95</v>
@@ -7197,7 +7217,7 @@
     </row>
     <row r="276" spans="1:7" ht="15">
       <c r="A276" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>96</v>
@@ -7218,7 +7238,7 @@
     </row>
     <row r="277" spans="1:7" ht="15">
       <c r="A277" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>97</v>
@@ -7239,7 +7259,7 @@
     </row>
     <row r="278" spans="1:7" ht="15">
       <c r="A278" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>98</v>
@@ -7260,7 +7280,7 @@
     </row>
     <row r="279" spans="1:7" ht="15">
       <c r="A279" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>99</v>
@@ -7281,7 +7301,7 @@
     </row>
     <row r="280" spans="1:7" ht="15">
       <c r="A280" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>100</v>
@@ -7302,7 +7322,7 @@
     </row>
     <row r="281" spans="1:7" ht="15">
       <c r="A281" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>101</v>
@@ -7323,7 +7343,7 @@
     </row>
     <row r="282" spans="1:7" ht="15">
       <c r="A282" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>102</v>
@@ -7344,7 +7364,7 @@
     </row>
     <row r="283" spans="1:7" ht="15">
       <c r="A283" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>103</v>
@@ -7365,7 +7385,7 @@
     </row>
     <row r="284" spans="1:7" ht="15">
       <c r="A284" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>104</v>
@@ -7386,7 +7406,7 @@
     </row>
     <row r="285" spans="1:7" ht="15">
       <c r="A285" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>105</v>
@@ -7407,7 +7427,7 @@
     </row>
     <row r="286" spans="1:7" ht="15">
       <c r="A286" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>106</v>
@@ -7428,7 +7448,7 @@
     </row>
     <row r="287" spans="1:7" ht="15">
       <c r="A287" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>107</v>
@@ -7449,7 +7469,7 @@
     </row>
     <row r="288" spans="1:7" ht="15">
       <c r="A288" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>108</v>
@@ -7470,7 +7490,7 @@
     </row>
     <row r="289" spans="1:7" ht="15">
       <c r="A289" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>109</v>
@@ -7491,7 +7511,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>5</v>
@@ -7512,7 +7532,7 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>8</v>
@@ -7533,7 +7553,7 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>10</v>
@@ -7554,7 +7574,7 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>11</v>
@@ -7575,7 +7595,7 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>13</v>
@@ -7596,7 +7616,7 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>14</v>
@@ -7617,7 +7637,7 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>15</v>
@@ -7638,7 +7658,7 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>16</v>
@@ -7659,7 +7679,7 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>17</v>
@@ -7680,7 +7700,7 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>18</v>
@@ -7701,7 +7721,7 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>19</v>
@@ -7722,7 +7742,7 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>20</v>
@@ -7743,7 +7763,7 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>21</v>
@@ -7764,7 +7784,7 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>22</v>
@@ -7785,7 +7805,7 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>23</v>
@@ -7806,7 +7826,7 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>24</v>
@@ -7827,7 +7847,7 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>25</v>
@@ -7848,7 +7868,7 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>26</v>
@@ -7869,7 +7889,7 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>29</v>
@@ -7890,7 +7910,7 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>30</v>
@@ -7911,7 +7931,7 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>31</v>
@@ -7932,7 +7952,7 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>32</v>
@@ -7953,7 +7973,7 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>33</v>
@@ -7974,7 +7994,7 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>34</v>
@@ -7995,7 +8015,7 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>35</v>
@@ -8016,7 +8036,7 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>36</v>
@@ -8037,7 +8057,7 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>37</v>
@@ -8058,7 +8078,7 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>38</v>
@@ -8079,7 +8099,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>39</v>
@@ -8100,7 +8120,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>40</v>
@@ -8121,7 +8141,7 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>41</v>
@@ -8142,7 +8162,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>42</v>
@@ -8163,7 +8183,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>43</v>
@@ -8184,7 +8204,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>44</v>
@@ -8205,7 +8225,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>45</v>
@@ -8226,7 +8246,7 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>46</v>
@@ -8247,7 +8267,7 @@
     </row>
     <row r="326" spans="1:7" ht="15">
       <c r="A326" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>47</v>
@@ -8268,7 +8288,7 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>48</v>
@@ -8289,7 +8309,7 @@
     </row>
     <row r="328" spans="1:7" ht="15">
       <c r="A328" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>49</v>
@@ -8310,7 +8330,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>50</v>
@@ -8331,7 +8351,7 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>51</v>
@@ -8352,7 +8372,7 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>52</v>
@@ -8373,7 +8393,7 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>53</v>
@@ -8394,7 +8414,7 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>54</v>
@@ -8415,7 +8435,7 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>55</v>
@@ -8436,7 +8456,7 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>56</v>
@@ -8457,7 +8477,7 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>57</v>
@@ -8478,7 +8498,7 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>58</v>
@@ -8499,7 +8519,7 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>59</v>
@@ -8520,7 +8540,7 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>60</v>
@@ -8541,7 +8561,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>61</v>
@@ -8562,7 +8582,7 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>62</v>
@@ -8583,7 +8603,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>63</v>
@@ -8604,7 +8624,7 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>64</v>
@@ -8625,7 +8645,7 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>65</v>
@@ -8646,7 +8666,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>67</v>
@@ -8667,7 +8687,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>68</v>
@@ -8688,7 +8708,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>69</v>
@@ -8709,7 +8729,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>70</v>
@@ -8730,7 +8750,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>71</v>
@@ -8751,7 +8771,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>72</v>
@@ -8772,7 +8792,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>73</v>
@@ -8793,7 +8813,7 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>74</v>
@@ -8814,7 +8834,7 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>75</v>
@@ -8835,7 +8855,7 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>76</v>
@@ -8856,7 +8876,7 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>77</v>
@@ -8877,7 +8897,7 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>78</v>
@@ -8898,7 +8918,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>79</v>
@@ -8919,7 +8939,7 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>82</v>
@@ -8940,7 +8960,7 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>83</v>
@@ -8961,7 +8981,7 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>84</v>
@@ -8982,7 +9002,7 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>85</v>
@@ -9003,7 +9023,7 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>86</v>
@@ -9024,7 +9044,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>87</v>
@@ -9045,7 +9065,7 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>88</v>
@@ -9066,7 +9086,7 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>89</v>
@@ -9087,7 +9107,7 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>90</v>
@@ -9108,7 +9128,7 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>91</v>
@@ -9129,7 +9149,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>92</v>
@@ -9150,7 +9170,7 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>93</v>
@@ -9171,7 +9191,7 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>94</v>
@@ -9192,7 +9212,7 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>95</v>
@@ -9213,7 +9233,7 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>96</v>
@@ -9234,7 +9254,7 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>97</v>
@@ -9255,7 +9275,7 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>98</v>
@@ -9276,7 +9296,7 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>99</v>
@@ -9297,7 +9317,7 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>100</v>
@@ -9318,7 +9338,7 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>101</v>
@@ -9339,7 +9359,7 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>102</v>
@@ -9360,7 +9380,7 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>103</v>
@@ -9381,7 +9401,7 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>104</v>
@@ -9402,7 +9422,7 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>105</v>
@@ -9423,7 +9443,7 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>106</v>
@@ -9444,7 +9464,7 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>107</v>
@@ -9465,7 +9485,7 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>108</v>
@@ -9486,7 +9506,7 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>109</v>
@@ -9507,7 +9527,7 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>5</v>
@@ -9528,7 +9548,7 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>8</v>
@@ -9549,7 +9569,7 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>10</v>
@@ -9570,7 +9590,7 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>11</v>
@@ -9591,7 +9611,7 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>13</v>
@@ -9612,7 +9632,7 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>14</v>
@@ -9633,7 +9653,7 @@
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>15</v>
@@ -9654,7 +9674,7 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>16</v>
@@ -9675,7 +9695,7 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>17</v>
@@ -9696,7 +9716,7 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>18</v>
@@ -9717,7 +9737,7 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>19</v>
@@ -9738,7 +9758,7 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>20</v>
@@ -9759,7 +9779,7 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>21</v>
@@ -9780,7 +9800,7 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>22</v>
@@ -9801,7 +9821,7 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>23</v>
@@ -9822,7 +9842,7 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>24</v>
@@ -9843,7 +9863,7 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>25</v>
@@ -9864,7 +9884,7 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>26</v>
@@ -9885,7 +9905,7 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>29</v>
@@ -9906,7 +9926,7 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>30</v>
@@ -9927,7 +9947,7 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>31</v>
@@ -9948,7 +9968,7 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>32</v>
@@ -9969,7 +9989,7 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>33</v>
@@ -9990,7 +10010,7 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>34</v>
@@ -10011,7 +10031,7 @@
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>35</v>
@@ -10032,7 +10052,7 @@
     </row>
     <row r="411" spans="1:7" ht="15">
       <c r="A411" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>36</v>
@@ -10053,7 +10073,7 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>37</v>
@@ -10074,7 +10094,7 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>38</v>
@@ -10095,7 +10115,7 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>39</v>
@@ -10116,7 +10136,7 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>40</v>
@@ -10137,7 +10157,7 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>41</v>
@@ -10158,7 +10178,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>42</v>
@@ -10179,7 +10199,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>43</v>
@@ -10200,7 +10220,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>44</v>
@@ -10221,7 +10241,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>45</v>
@@ -10242,7 +10262,7 @@
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>46</v>
@@ -10263,7 +10283,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>47</v>
@@ -10284,7 +10304,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>48</v>
@@ -10305,7 +10325,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>49</v>
@@ -10326,7 +10346,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>50</v>
@@ -10347,7 +10367,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>51</v>
@@ -10369,7 +10389,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>52</v>
@@ -10390,7 +10410,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>53</v>
@@ -10411,7 +10431,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>54</v>
@@ -10432,7 +10452,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>55</v>
@@ -10453,7 +10473,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>56</v>
@@ -10474,7 +10494,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>57</v>
@@ -10495,7 +10515,7 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>58</v>
@@ -10516,7 +10536,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>59</v>
@@ -10537,7 +10557,7 @@
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>60</v>
@@ -10558,7 +10578,7 @@
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>61</v>
@@ -10579,7 +10599,7 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>62</v>
@@ -10600,7 +10620,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>63</v>
@@ -10621,7 +10641,7 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>64</v>
@@ -10642,7 +10662,7 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>65</v>
@@ -10663,7 +10683,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>67</v>
@@ -10684,7 +10704,7 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>68</v>
@@ -10705,7 +10725,7 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>69</v>
@@ -10726,7 +10746,7 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>70</v>
@@ -10747,7 +10767,7 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>71</v>
@@ -10768,7 +10788,7 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>72</v>
@@ -10789,7 +10809,7 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>73</v>
@@ -10810,7 +10830,7 @@
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>74</v>
@@ -10831,7 +10851,7 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>75</v>
@@ -10852,7 +10872,7 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>76</v>
@@ -10873,7 +10893,7 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>77</v>
@@ -10894,7 +10914,7 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>78</v>
@@ -10915,7 +10935,7 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>79</v>
@@ -10936,7 +10956,7 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>82</v>
@@ -10957,7 +10977,7 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>83</v>
@@ -10978,7 +10998,7 @@
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>84</v>
@@ -10999,7 +11019,7 @@
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>85</v>
@@ -11020,7 +11040,7 @@
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>86</v>
@@ -11041,7 +11061,7 @@
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>87</v>
@@ -11062,7 +11082,7 @@
     </row>
     <row r="460" spans="1:7">
       <c r="A460" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>88</v>
@@ -11083,7 +11103,7 @@
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>89</v>
@@ -11104,7 +11124,7 @@
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>90</v>
@@ -11125,7 +11145,7 @@
     </row>
     <row r="463" spans="1:7" ht="15">
       <c r="A463" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>91</v>
@@ -11146,7 +11166,7 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>92</v>
@@ -11167,7 +11187,7 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>93</v>
@@ -11188,7 +11208,7 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>94</v>
@@ -11209,7 +11229,7 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>95</v>
@@ -11230,7 +11250,7 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>96</v>
@@ -11251,7 +11271,7 @@
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>97</v>
@@ -11272,7 +11292,7 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>98</v>
@@ -11293,7 +11313,7 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>99</v>
@@ -11314,7 +11334,7 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>100</v>
@@ -11335,7 +11355,7 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>101</v>
@@ -11356,7 +11376,7 @@
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>102</v>
@@ -11377,7 +11397,7 @@
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>103</v>
@@ -11398,7 +11418,7 @@
     </row>
     <row r="476" spans="1:7">
       <c r="A476" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>104</v>
@@ -11419,7 +11439,7 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>105</v>
@@ -11440,7 +11460,7 @@
     </row>
     <row r="478" spans="1:7">
       <c r="A478" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>106</v>
@@ -11461,7 +11481,7 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>107</v>
@@ -11482,7 +11502,7 @@
     </row>
     <row r="480" spans="1:7">
       <c r="A480" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>108</v>
@@ -11503,7 +11523,7 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>109</v>
@@ -11524,7 +11544,7 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>5</v>
@@ -11545,7 +11565,7 @@
     </row>
     <row r="483" spans="1:7" ht="15">
       <c r="A483" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>8</v>
@@ -11566,7 +11586,7 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>10</v>
@@ -11587,7 +11607,7 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>11</v>
@@ -11608,7 +11628,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>13</v>
@@ -11629,7 +11649,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>14</v>
@@ -11650,7 +11670,7 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>15</v>
@@ -11671,7 +11691,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>16</v>
@@ -11692,7 +11712,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>17</v>
@@ -11713,7 +11733,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>18</v>
@@ -11734,7 +11754,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>19</v>
@@ -11755,7 +11775,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>20</v>
@@ -11776,7 +11796,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="A494" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>21</v>
@@ -11797,7 +11817,7 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>22</v>
@@ -11818,7 +11838,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>23</v>
@@ -11839,7 +11859,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>24</v>
@@ -11860,7 +11880,7 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>25</v>
@@ -11881,7 +11901,7 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>26</v>
@@ -11902,7 +11922,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>29</v>
@@ -11923,7 +11943,7 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>30</v>
@@ -11944,7 +11964,7 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>31</v>
@@ -11965,7 +11985,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>32</v>
@@ -11986,7 +12006,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>33</v>
@@ -12007,7 +12027,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>34</v>
@@ -12028,7 +12048,7 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>35</v>
@@ -12049,7 +12069,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>36</v>
@@ -12070,7 +12090,7 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>37</v>
@@ -12091,7 +12111,7 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>38</v>
@@ -12112,7 +12132,7 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>39</v>
@@ -12133,7 +12153,7 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>40</v>
@@ -12154,7 +12174,7 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>41</v>
@@ -12175,7 +12195,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>42</v>
@@ -12196,7 +12216,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>43</v>
@@ -12217,7 +12237,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>44</v>
@@ -12238,7 +12258,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>45</v>
@@ -12259,7 +12279,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>46</v>
@@ -12280,7 +12300,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>47</v>
@@ -12301,7 +12321,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>48</v>
@@ -12322,7 +12342,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>49</v>
@@ -12343,7 +12363,7 @@
     </row>
     <row r="521" spans="1:7" ht="15">
       <c r="A521" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>50</v>
@@ -12364,7 +12384,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>51</v>
@@ -12385,7 +12405,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>52</v>
@@ -12406,7 +12426,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="A524" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>53</v>
@@ -12427,7 +12447,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>54</v>
@@ -12448,7 +12468,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>55</v>
@@ -12469,7 +12489,7 @@
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>56</v>
@@ -12490,7 +12510,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>57</v>
@@ -12511,7 +12531,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>58</v>
@@ -12532,7 +12552,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="A530" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>59</v>
@@ -12553,7 +12573,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>60</v>
@@ -12574,7 +12594,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="A532" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>61</v>
@@ -12595,7 +12615,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="A533" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>62</v>
@@ -12616,7 +12636,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>63</v>
@@ -12637,7 +12657,7 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>64</v>
@@ -12658,7 +12678,7 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>65</v>
@@ -12679,7 +12699,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>67</v>
@@ -12700,7 +12720,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>68</v>
@@ -12721,7 +12741,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>69</v>
@@ -12742,7 +12762,7 @@
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>70</v>
@@ -12763,7 +12783,7 @@
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>71</v>
@@ -12784,7 +12804,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>72</v>
@@ -12805,7 +12825,7 @@
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>73</v>
@@ -12826,7 +12846,7 @@
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>74</v>
@@ -12847,7 +12867,7 @@
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>75</v>
@@ -12868,7 +12888,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="A546" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>76</v>
@@ -12889,7 +12909,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="A547" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>77</v>
@@ -12910,7 +12930,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>78</v>
@@ -12931,7 +12951,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>79</v>
@@ -12952,7 +12972,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>82</v>
@@ -12973,7 +12993,7 @@
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>83</v>
@@ -12994,7 +13014,7 @@
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>84</v>
@@ -13015,7 +13035,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="A553" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>85</v>
@@ -13036,7 +13056,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="A554" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>86</v>
@@ -13057,7 +13077,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>87</v>
@@ -13078,7 +13098,7 @@
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>88</v>
@@ -13099,7 +13119,7 @@
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>89</v>
@@ -13120,7 +13140,7 @@
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>90</v>
@@ -13141,7 +13161,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>91</v>
@@ -13162,7 +13182,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="A560" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>92</v>
@@ -13183,7 +13203,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="A561" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>93</v>
@@ -13204,7 +13224,7 @@
     </row>
     <row r="562" spans="1:7">
       <c r="A562" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>94</v>
@@ -13225,7 +13245,7 @@
     </row>
     <row r="563" spans="1:7">
       <c r="A563" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>95</v>
@@ -13246,7 +13266,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="A564" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>96</v>
@@ -13267,7 +13287,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="A565" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>97</v>
@@ -13288,7 +13308,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="A566" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>98</v>
@@ -13309,7 +13329,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="A567" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>99</v>
@@ -13330,7 +13350,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="A568" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>100</v>
@@ -13351,7 +13371,7 @@
     </row>
     <row r="569" spans="1:7">
       <c r="A569" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>101</v>
@@ -13372,7 +13392,7 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>102</v>
@@ -13393,7 +13413,7 @@
     </row>
     <row r="571" spans="1:7">
       <c r="A571" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>103</v>
@@ -13414,7 +13434,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="A572" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>104</v>
@@ -13435,7 +13455,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="A573" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>105</v>
@@ -13456,7 +13476,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="A574" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>106</v>
@@ -13477,7 +13497,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="A575" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>107</v>
@@ -13498,7 +13518,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="A576" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>108</v>
@@ -13519,7 +13539,7 @@
     </row>
     <row r="577" spans="1:7">
       <c r="A577" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>109</v>
@@ -13540,7 +13560,7 @@
     </row>
     <row r="578" spans="1:7">
       <c r="A578" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>5</v>
@@ -13561,7 +13581,7 @@
     </row>
     <row r="579" spans="1:7">
       <c r="A579" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>8</v>
@@ -13582,7 +13602,7 @@
     </row>
     <row r="580" spans="1:7">
       <c r="A580" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>10</v>
@@ -13603,7 +13623,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="A581" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>11</v>
@@ -13624,7 +13644,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="A582" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>13</v>
@@ -13645,7 +13665,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="A583" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>14</v>
@@ -13666,7 +13686,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="A584" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>15</v>
@@ -13687,7 +13707,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="A585" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>16</v>
@@ -13708,7 +13728,7 @@
     </row>
     <row r="586" spans="1:7" ht="15">
       <c r="A586" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>17</v>
@@ -13729,7 +13749,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>18</v>
@@ -13750,7 +13770,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>19</v>
@@ -13771,7 +13791,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>20</v>
@@ -13792,7 +13812,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="A590" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>21</v>
@@ -13813,7 +13833,7 @@
     </row>
     <row r="591" spans="1:7">
       <c r="A591" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>22</v>
@@ -13834,7 +13854,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="A592" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>23</v>
@@ -13855,7 +13875,7 @@
     </row>
     <row r="593" spans="1:7">
       <c r="A593" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>24</v>
@@ -13876,7 +13896,7 @@
     </row>
     <row r="594" spans="1:7">
       <c r="A594" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>25</v>
@@ -13897,7 +13917,7 @@
     </row>
     <row r="595" spans="1:7">
       <c r="A595" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>26</v>
@@ -13918,7 +13938,7 @@
     </row>
     <row r="596" spans="1:7" ht="15">
       <c r="A596" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>29</v>
@@ -13939,7 +13959,7 @@
     </row>
     <row r="597" spans="1:7">
       <c r="A597" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>30</v>
@@ -13960,7 +13980,7 @@
     </row>
     <row r="598" spans="1:7">
       <c r="A598" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>31</v>
@@ -13981,7 +14001,7 @@
     </row>
     <row r="599" spans="1:7">
       <c r="A599" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>32</v>
@@ -14002,7 +14022,7 @@
     </row>
     <row r="600" spans="1:7">
       <c r="A600" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>33</v>
@@ -14023,7 +14043,7 @@
     </row>
     <row r="601" spans="1:7">
       <c r="A601" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>34</v>
@@ -14044,7 +14064,7 @@
     </row>
     <row r="602" spans="1:7">
       <c r="A602" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>35</v>
@@ -14065,7 +14085,7 @@
     </row>
     <row r="603" spans="1:7">
       <c r="A603" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>36</v>
@@ -14086,7 +14106,7 @@
     </row>
     <row r="604" spans="1:7">
       <c r="A604" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>37</v>
@@ -14107,7 +14127,7 @@
     </row>
     <row r="605" spans="1:7">
       <c r="A605" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>38</v>
@@ -14128,7 +14148,7 @@
     </row>
     <row r="606" spans="1:7">
       <c r="A606" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>39</v>
@@ -14149,7 +14169,7 @@
     </row>
     <row r="607" spans="1:7">
       <c r="A607" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>40</v>
@@ -14170,7 +14190,7 @@
     </row>
     <row r="608" spans="1:7">
       <c r="A608" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>41</v>
@@ -14191,7 +14211,7 @@
     </row>
     <row r="609" spans="1:7">
       <c r="A609" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>42</v>
@@ -14212,7 +14232,7 @@
     </row>
     <row r="610" spans="1:7">
       <c r="A610" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>43</v>
@@ -14233,7 +14253,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="A611" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>44</v>
@@ -14254,7 +14274,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="A612" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>45</v>
@@ -14275,7 +14295,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="A613" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>46</v>
@@ -14296,7 +14316,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="A614" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>47</v>
@@ -14317,7 +14337,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>48</v>
@@ -14338,7 +14358,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="A616" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>49</v>
@@ -14359,7 +14379,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="A617" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>50</v>
@@ -14380,7 +14400,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="A618" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>51</v>
@@ -14401,7 +14421,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="A619" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>52</v>
@@ -14422,7 +14442,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="A620" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>53</v>
@@ -14443,7 +14463,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="A621" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>54</v>
@@ -14464,7 +14484,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="A622" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>55</v>
@@ -14485,7 +14505,7 @@
     </row>
     <row r="623" spans="1:7">
       <c r="A623" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>56</v>
@@ -14506,7 +14526,7 @@
     </row>
     <row r="624" spans="1:7">
       <c r="A624" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>57</v>
@@ -14527,7 +14547,7 @@
     </row>
     <row r="625" spans="1:7">
       <c r="A625" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>58</v>
@@ -14548,7 +14568,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="A626" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>59</v>
@@ -14569,7 +14589,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="A627" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>60</v>
@@ -14590,7 +14610,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="A628" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>61</v>
@@ -14611,7 +14631,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="A629" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>62</v>
@@ -14632,7 +14652,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="A630" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>63</v>
@@ -14653,7 +14673,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="A631" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>64</v>
@@ -14674,7 +14694,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>65</v>
@@ -14695,7 +14715,7 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>67</v>
@@ -14716,7 +14736,7 @@
     </row>
     <row r="634" spans="1:7">
       <c r="A634" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>68</v>
@@ -14737,7 +14757,7 @@
     </row>
     <row r="635" spans="1:7">
       <c r="A635" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>69</v>
@@ -14758,7 +14778,7 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>70</v>
@@ -14779,7 +14799,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>71</v>
@@ -14800,7 +14820,7 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>72</v>
@@ -14821,7 +14841,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="A639" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>73</v>
@@ -14842,7 +14862,7 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>74</v>
@@ -14863,7 +14883,7 @@
     </row>
     <row r="641" spans="1:7">
       <c r="A641" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>75</v>
@@ -14884,7 +14904,7 @@
     </row>
     <row r="642" spans="1:7">
       <c r="A642" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>76</v>
@@ -14905,7 +14925,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="A643" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>77</v>
@@ -14926,7 +14946,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="A644" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>78</v>
@@ -14947,7 +14967,7 @@
     </row>
     <row r="645" spans="1:7">
       <c r="A645" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>79</v>
@@ -14968,7 +14988,7 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>82</v>
@@ -14989,7 +15009,7 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>83</v>
@@ -15010,7 +15030,7 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>84</v>
@@ -15031,7 +15051,7 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>85</v>
@@ -15052,7 +15072,7 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>86</v>
@@ -15073,7 +15093,7 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>87</v>
@@ -15094,7 +15114,7 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>88</v>
@@ -15115,7 +15135,7 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>89</v>
@@ -15136,7 +15156,7 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>90</v>
@@ -15157,7 +15177,7 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>91</v>
@@ -15178,7 +15198,7 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>92</v>
@@ -15199,7 +15219,7 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>93</v>
@@ -15220,7 +15240,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>94</v>
@@ -15241,7 +15261,7 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>95</v>
@@ -15262,7 +15282,7 @@
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>96</v>
@@ -15283,7 +15303,7 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>97</v>
@@ -15304,7 +15324,7 @@
     </row>
     <row r="662" spans="1:7">
       <c r="A662" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>98</v>
@@ -15325,7 +15345,7 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>99</v>
@@ -15346,7 +15366,7 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>100</v>
@@ -15367,7 +15387,7 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>101</v>
@@ -15388,7 +15408,7 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>102</v>
@@ -15409,7 +15429,7 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>103</v>
@@ -15430,7 +15450,7 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>104</v>
@@ -15451,7 +15471,7 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>105</v>
@@ -15472,7 +15492,7 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>106</v>
@@ -15493,7 +15513,7 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>107</v>
@@ -15514,7 +15534,7 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>108</v>
@@ -15535,7 +15555,7 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>109</v>
@@ -15556,7 +15576,7 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>5</v>
@@ -15577,7 +15597,7 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>8</v>
@@ -15598,7 +15618,7 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>10</v>
@@ -15619,7 +15639,7 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>11</v>
@@ -15640,7 +15660,7 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>13</v>
@@ -15661,7 +15681,7 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>14</v>
@@ -15682,7 +15702,7 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>15</v>
@@ -15703,7 +15723,7 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>16</v>
@@ -15724,7 +15744,7 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>17</v>
@@ -15745,7 +15765,7 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>18</v>
@@ -15766,7 +15786,7 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>19</v>
@@ -15787,7 +15807,7 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>20</v>
@@ -15808,7 +15828,7 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>21</v>
@@ -15829,7 +15849,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>22</v>
@@ -15850,7 +15870,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="A688" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>23</v>
@@ -15871,7 +15891,7 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>24</v>
@@ -15892,7 +15912,7 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>25</v>
@@ -15913,7 +15933,7 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>26</v>
@@ -15934,7 +15954,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>29</v>
@@ -15955,7 +15975,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="A693" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>30</v>
@@ -15976,7 +15996,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>31</v>
@@ -15997,7 +16017,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>32</v>
@@ -16018,7 +16038,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="A696" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>33</v>
@@ -16039,7 +16059,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="A697" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>34</v>
@@ -16060,7 +16080,7 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>35</v>
@@ -16081,7 +16101,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>36</v>
@@ -16102,7 +16122,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>37</v>
@@ -16123,7 +16143,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>38</v>
@@ -16144,7 +16164,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="A702" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>39</v>
@@ -16165,7 +16185,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="A703" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>40</v>
@@ -16186,7 +16206,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="A704" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>41</v>
@@ -16207,7 +16227,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="A705" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>42</v>
@@ -16228,7 +16248,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="A706" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>43</v>
@@ -16249,7 +16269,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="A707" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>44</v>
@@ -16270,7 +16290,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="A708" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>45</v>
@@ -16291,7 +16311,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="A709" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>46</v>
@@ -16312,7 +16332,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="A710" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>47</v>
@@ -16333,7 +16353,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="A711" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>48</v>
@@ -16354,7 +16374,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="A712" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>49</v>
@@ -16375,7 +16395,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="A713" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>50</v>
@@ -16396,7 +16416,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="A714" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>51</v>
@@ -16417,7 +16437,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="A715" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>52</v>
@@ -16438,7 +16458,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="A716" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>53</v>
@@ -16459,7 +16479,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="A717" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>54</v>
@@ -16480,7 +16500,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="A718" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>55</v>
@@ -16501,7 +16521,7 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>56</v>
@@ -16522,7 +16542,7 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>57</v>
@@ -16543,7 +16563,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>58</v>
@@ -16564,7 +16584,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>59</v>
@@ -16585,7 +16605,7 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>60</v>
@@ -16606,7 +16626,7 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>61</v>
@@ -16627,7 +16647,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>62</v>
@@ -16648,7 +16668,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>63</v>
@@ -16669,7 +16689,7 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>64</v>
@@ -16690,7 +16710,7 @@
     </row>
     <row r="728" spans="1:7">
       <c r="A728" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>65</v>
@@ -16711,7 +16731,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>67</v>
@@ -16732,7 +16752,7 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>68</v>
@@ -16753,7 +16773,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>69</v>
@@ -16774,7 +16794,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>70</v>
@@ -16795,7 +16815,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="A733" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>71</v>
@@ -16816,7 +16836,7 @@
     </row>
     <row r="734" spans="1:7" ht="15">
       <c r="A734" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>72</v>
@@ -16837,7 +16857,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>73</v>
@@ -16858,7 +16878,7 @@
     </row>
     <row r="736" spans="1:7" ht="15">
       <c r="A736" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>74</v>
@@ -16879,7 +16899,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="A737" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>75</v>
@@ -16900,7 +16920,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="A738" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>76</v>
@@ -16921,7 +16941,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>77</v>
@@ -16942,7 +16962,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>78</v>
@@ -16963,7 +16983,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>79</v>
@@ -16984,7 +17004,7 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>82</v>
@@ -17005,7 +17025,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>83</v>
@@ -17026,7 +17046,7 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>84</v>
@@ -17047,7 +17067,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="A745" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>85</v>
@@ -17068,7 +17088,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="A746" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>86</v>
@@ -17089,7 +17109,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="A747" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>87</v>
@@ -17110,7 +17130,7 @@
     </row>
     <row r="748" spans="1:7">
       <c r="A748" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>88</v>
@@ -17131,7 +17151,7 @@
     </row>
     <row r="749" spans="1:7">
       <c r="A749" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>89</v>
@@ -17152,7 +17172,7 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>90</v>
@@ -17173,7 +17193,7 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>91</v>
@@ -17194,7 +17214,7 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>92</v>
@@ -17215,7 +17235,7 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>93</v>
@@ -17236,7 +17256,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="A754" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>94</v>
@@ -17257,7 +17277,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="A755" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>95</v>
@@ -17278,7 +17298,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>96</v>
@@ -17299,7 +17319,7 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>97</v>
@@ -17320,7 +17340,7 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>98</v>
@@ -17341,7 +17361,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="A759" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>99</v>
@@ -17362,7 +17382,7 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>100</v>
@@ -17383,7 +17403,7 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>101</v>
@@ -17404,7 +17424,7 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>102</v>
@@ -17425,7 +17445,7 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>103</v>
@@ -17446,7 +17466,7 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>104</v>
@@ -17467,7 +17487,7 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>105</v>
@@ -17488,7 +17508,7 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>106</v>
@@ -17509,7 +17529,7 @@
     </row>
     <row r="767" spans="1:7">
       <c r="A767" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>107</v>
@@ -17530,7 +17550,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>108</v>
@@ -17551,7 +17571,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="A769" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>109</v>
@@ -17572,7 +17592,7 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>5</v>
@@ -17593,7 +17613,7 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>8</v>
@@ -17614,7 +17634,7 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>10</v>
@@ -17635,7 +17655,7 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>11</v>
@@ -17656,7 +17676,7 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>13</v>
@@ -17677,7 +17697,7 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>14</v>
@@ -17698,7 +17718,7 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>15</v>
@@ -17719,7 +17739,7 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>16</v>
@@ -17740,7 +17760,7 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>17</v>
@@ -17761,7 +17781,7 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>18</v>
@@ -17782,7 +17802,7 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>21</v>
@@ -17803,7 +17823,7 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>22</v>
@@ -17824,7 +17844,7 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>23</v>
@@ -17845,7 +17865,7 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>24</v>
@@ -17866,7 +17886,7 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>25</v>
@@ -17887,7 +17907,7 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>26</v>
@@ -17908,7 +17928,7 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>29</v>
@@ -17929,7 +17949,7 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>30</v>
@@ -17950,7 +17970,7 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>31</v>
@@ -17971,7 +17991,7 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>32</v>
@@ -17992,7 +18012,7 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>35</v>
@@ -18013,7 +18033,7 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>36</v>
@@ -18034,7 +18054,7 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>37</v>
@@ -18055,7 +18075,7 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>38</v>
@@ -18076,7 +18096,7 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>39</v>
@@ -18097,7 +18117,7 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>40</v>
@@ -18118,7 +18138,7 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>41</v>
@@ -18139,7 +18159,7 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>42</v>
@@ -18160,7 +18180,7 @@
     </row>
     <row r="798" spans="1:7">
       <c r="A798" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>43</v>
@@ -18181,7 +18201,7 @@
     </row>
     <row r="799" spans="1:7">
       <c r="A799" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>44</v>
@@ -18202,7 +18222,7 @@
     </row>
     <row r="800" spans="1:7">
       <c r="A800" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>47</v>
@@ -18223,7 +18243,7 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>48</v>
@@ -18244,7 +18264,7 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>49</v>
@@ -18265,7 +18285,7 @@
     </row>
     <row r="803" spans="1:7">
       <c r="A803" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>50</v>
@@ -18286,7 +18306,7 @@
     </row>
     <row r="804" spans="1:7">
       <c r="A804" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>51</v>
@@ -18307,7 +18327,7 @@
     </row>
     <row r="805" spans="1:7">
       <c r="A805" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>52</v>
@@ -18328,7 +18348,7 @@
     </row>
     <row r="806" spans="1:7">
       <c r="A806" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>53</v>
@@ -18349,7 +18369,7 @@
     </row>
     <row r="807" spans="1:7">
       <c r="A807" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>54</v>
@@ -18370,7 +18390,7 @@
     </row>
     <row r="808" spans="1:7">
       <c r="A808" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>55</v>
@@ -18391,7 +18411,7 @@
     </row>
     <row r="809" spans="1:7">
       <c r="A809" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>56</v>
@@ -18412,7 +18432,7 @@
     </row>
     <row r="810" spans="1:7">
       <c r="A810" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>59</v>
@@ -18433,7 +18453,7 @@
     </row>
     <row r="811" spans="1:7">
       <c r="A811" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>60</v>
@@ -18454,7 +18474,7 @@
     </row>
     <row r="812" spans="1:7">
       <c r="A812" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>61</v>
@@ -18475,7 +18495,7 @@
     </row>
     <row r="813" spans="1:7">
       <c r="A813" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>62</v>
@@ -18496,7 +18516,7 @@
     </row>
     <row r="814" spans="1:7">
       <c r="A814" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>63</v>
@@ -18517,7 +18537,7 @@
     </row>
     <row r="815" spans="1:7">
       <c r="A815" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>64</v>
@@ -18538,7 +18558,7 @@
     </row>
     <row r="816" spans="1:7">
       <c r="A816" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>65</v>
@@ -18559,7 +18579,7 @@
     </row>
     <row r="817" spans="1:7">
       <c r="A817" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>67</v>
@@ -18580,7 +18600,7 @@
     </row>
     <row r="818" spans="1:7">
       <c r="A818" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>68</v>
@@ -18601,7 +18621,7 @@
     </row>
     <row r="819" spans="1:7">
       <c r="A819" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>69</v>
@@ -18622,7 +18642,7 @@
     </row>
     <row r="820" spans="1:7">
       <c r="A820" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>72</v>
@@ -18643,7 +18663,7 @@
     </row>
     <row r="821" spans="1:7">
       <c r="A821" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>73</v>
@@ -18664,7 +18684,7 @@
     </row>
     <row r="822" spans="1:7">
       <c r="A822" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>74</v>
@@ -18685,7 +18705,7 @@
     </row>
     <row r="823" spans="1:7">
       <c r="A823" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>75</v>
@@ -18706,7 +18726,7 @@
     </row>
     <row r="824" spans="1:7">
       <c r="A824" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>76</v>
@@ -18727,7 +18747,7 @@
     </row>
     <row r="825" spans="1:7">
       <c r="A825" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>77</v>
@@ -18748,7 +18768,7 @@
     </row>
     <row r="826" spans="1:7">
       <c r="A826" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B826" s="1" t="s">
         <v>78</v>
@@ -18769,7 +18789,7 @@
     </row>
     <row r="827" spans="1:7">
       <c r="A827" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>79</v>
@@ -18790,7 +18810,7 @@
     </row>
     <row r="828" spans="1:7">
       <c r="A828" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>82</v>
@@ -18811,7 +18831,7 @@
     </row>
     <row r="829" spans="1:7">
       <c r="A829" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>83</v>
@@ -18832,7 +18852,7 @@
     </row>
     <row r="830" spans="1:7">
       <c r="A830" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>86</v>
@@ -18853,7 +18873,7 @@
     </row>
     <row r="831" spans="1:7">
       <c r="A831" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>87</v>
@@ -18874,7 +18894,7 @@
     </row>
     <row r="832" spans="1:7">
       <c r="A832" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>88</v>
@@ -18895,7 +18915,7 @@
     </row>
     <row r="833" spans="1:7">
       <c r="A833" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>89</v>
@@ -18916,7 +18936,7 @@
     </row>
     <row r="834" spans="1:7">
       <c r="A834" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>90</v>
@@ -18937,7 +18957,7 @@
     </row>
     <row r="835" spans="1:7">
       <c r="A835" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>91</v>
@@ -18958,7 +18978,7 @@
     </row>
     <row r="836" spans="1:7">
       <c r="A836" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>92</v>
@@ -18979,7 +18999,7 @@
     </row>
     <row r="837" spans="1:7" ht="15">
       <c r="A837" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>93</v>
@@ -19000,7 +19020,7 @@
     </row>
     <row r="838" spans="1:7">
       <c r="A838" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>94</v>
@@ -19021,7 +19041,7 @@
     </row>
     <row r="839" spans="1:7">
       <c r="A839" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>95</v>
@@ -19042,7 +19062,7 @@
     </row>
     <row r="840" spans="1:7">
       <c r="A840" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>98</v>
@@ -19063,7 +19083,7 @@
     </row>
     <row r="841" spans="1:7">
       <c r="A841" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B841" s="1" t="s">
         <v>99</v>
@@ -19084,7 +19104,7 @@
     </row>
     <row r="842" spans="1:7">
       <c r="A842" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>100</v>
@@ -19105,7 +19125,7 @@
     </row>
     <row r="843" spans="1:7">
       <c r="A843" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>101</v>
@@ -19126,7 +19146,7 @@
     </row>
     <row r="844" spans="1:7" ht="15">
       <c r="A844" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B844" s="1" t="s">
         <v>102</v>
@@ -19147,7 +19167,7 @@
     </row>
     <row r="845" spans="1:7">
       <c r="A845" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>103</v>
@@ -19168,7 +19188,7 @@
     </row>
     <row r="846" spans="1:7">
       <c r="A846" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>104</v>
@@ -19189,7 +19209,7 @@
     </row>
     <row r="847" spans="1:7">
       <c r="A847" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>105</v>
@@ -19210,7 +19230,7 @@
     </row>
     <row r="848" spans="1:7">
       <c r="A848" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>106</v>
@@ -19231,7 +19251,7 @@
     </row>
     <row r="849" spans="1:7">
       <c r="A849" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>107</v>
@@ -20083,11 +20103,11 @@
         <v>7</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G889" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>NA/neg.control_plate_10</v>
+        <v>NA/neg.control_P10</v>
       </c>
     </row>
     <row r="890" spans="1:7">
@@ -20440,11 +20460,11 @@
         <v>7</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G906" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>18Ja24/ColiGuard_plate_10</v>
+        <v>18Ja24/ColiGuard_P10</v>
       </c>
     </row>
     <row r="907" spans="1:7">
@@ -20545,11 +20565,11 @@
         <v>7</v>
       </c>
       <c r="E911" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G911" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>18Ja24/Protexin_plate_10</v>
+        <v>18Ja24/Protexin_P10</v>
       </c>
     </row>
     <row r="912" spans="1:7">
@@ -20629,11 +20649,11 @@
         <v>7</v>
       </c>
       <c r="E915" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G915" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>NA/neg.control_plate_10.2</v>
+        <v>NA/neg.control_P10.2</v>
       </c>
     </row>
     <row r="916" spans="1:7">
